--- a/documents/甘特图.xlsx
+++ b/documents/甘特图.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuyue\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mine\okane-memo\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631CC92C-908E-4304-A3AD-C33AA6357760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AD879B-235B-4116-B090-4BDF7640FF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -450,7 +450,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="179">
   <si>
     <t>WBS</t>
   </si>
@@ -1540,18 +1540,9 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>分析设计</t>
-  </si>
-  <si>
     <t>设计软件原型</t>
   </si>
   <si>
-    <t>编写需求用例文档</t>
-  </si>
-  <si>
-    <t>编写分析设计文档</t>
-  </si>
-  <si>
     <t>绘制ER图</t>
   </si>
   <si>
@@ -1576,9 +1567,6 @@
     <t>设计界面</t>
   </si>
   <si>
-    <t>编码实现</t>
-  </si>
-  <si>
     <t>进行界面编码</t>
   </si>
   <si>
@@ -1589,6 +1577,46 @@
   </si>
   <si>
     <t>项目经验总结</t>
+  </si>
+  <si>
+    <t>识别项目干系人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估项目可行性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开展需求分析</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用例模型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建需求管理计划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库表设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2749,13 +2777,6 @@
     <xf numFmtId="0" fontId="39" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="42" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2765,10 +2786,6 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="179" fontId="42" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2777,6 +2794,17 @@
     </xf>
     <xf numFmtId="179" fontId="42" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="42" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2828,7 +2856,7 @@
     <cellStyle name="着色 6" xfId="24" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="38" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="18">
     <dxf>
       <border>
         <left style="thin">
@@ -2840,20 +2868,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -2894,18 +2908,16 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -2920,18 +2932,16 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -2946,18 +2956,16 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -2972,18 +2980,16 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -2998,20 +3004,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -3022,20 +3014,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -3161,7 +3139,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="100" min="1" page="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="100" min="1" page="0" val="6"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3762,11 +3740,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN52"/>
+  <dimension ref="A1:BN58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49:F51"/>
+      <pane ySplit="7" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3794,27 +3772,27 @@
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="I1" s="91"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
-      <c r="U1" s="131"/>
-      <c r="V1" s="131"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="131"/>
-      <c r="Y1" s="131"/>
-      <c r="Z1" s="131"/>
-      <c r="AA1" s="131"/>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="131"/>
-      <c r="AD1" s="131"/>
-      <c r="AE1" s="131"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
@@ -3859,196 +3837,196 @@
       <c r="B4" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
       <c r="F4" s="73"/>
       <c r="G4" s="76" t="s">
         <v>131</v>
       </c>
       <c r="H4" s="90">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I4" s="74"/>
       <c r="J4" s="37"/>
-      <c r="K4" s="133" t="str">
+      <c r="K4" s="131" t="str">
         <f>"第 "&amp;((K6-($C$4-WEEKDAY($C$4,1)+2))/7+1 ) &amp;" 周"</f>
-        <v>第 1 周</v>
-      </c>
-      <c r="L4" s="134"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="135"/>
-      <c r="R4" s="133" t="str">
+        <v>第 6 周</v>
+      </c>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="133"/>
+      <c r="R4" s="131" t="str">
         <f t="shared" ref="R4" si="0">"第 "&amp;((R6-($C$4-WEEKDAY($C$4,1)+2))/7+1 ) &amp;" 周"</f>
-        <v>第 2 周</v>
-      </c>
-      <c r="S4" s="134"/>
-      <c r="T4" s="134"/>
-      <c r="U4" s="134"/>
-      <c r="V4" s="134"/>
-      <c r="W4" s="134"/>
-      <c r="X4" s="135"/>
-      <c r="Y4" s="133" t="str">
+        <v>第 7 周</v>
+      </c>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="133"/>
+      <c r="Y4" s="131" t="str">
         <f t="shared" ref="Y4" si="1">"第 "&amp;((Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1 ) &amp;" 周"</f>
-        <v>第 3 周</v>
-      </c>
-      <c r="Z4" s="134"/>
-      <c r="AA4" s="134"/>
-      <c r="AB4" s="134"/>
-      <c r="AC4" s="134"/>
-      <c r="AD4" s="134"/>
-      <c r="AE4" s="135"/>
-      <c r="AF4" s="133" t="str">
+        <v>第 8 周</v>
+      </c>
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="132"/>
+      <c r="AD4" s="132"/>
+      <c r="AE4" s="133"/>
+      <c r="AF4" s="131" t="str">
         <f t="shared" ref="AF4" si="2">"第 "&amp;((AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1 ) &amp;" 周"</f>
-        <v>第 4 周</v>
-      </c>
-      <c r="AG4" s="134"/>
-      <c r="AH4" s="134"/>
-      <c r="AI4" s="134"/>
-      <c r="AJ4" s="134"/>
-      <c r="AK4" s="134"/>
-      <c r="AL4" s="135"/>
-      <c r="AM4" s="133" t="str">
+        <v>第 9 周</v>
+      </c>
+      <c r="AG4" s="132"/>
+      <c r="AH4" s="132"/>
+      <c r="AI4" s="132"/>
+      <c r="AJ4" s="132"/>
+      <c r="AK4" s="132"/>
+      <c r="AL4" s="133"/>
+      <c r="AM4" s="131" t="str">
         <f t="shared" ref="AM4" si="3">"第 "&amp;((AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1 ) &amp;" 周"</f>
-        <v>第 5 周</v>
-      </c>
-      <c r="AN4" s="134"/>
-      <c r="AO4" s="134"/>
-      <c r="AP4" s="134"/>
-      <c r="AQ4" s="134"/>
-      <c r="AR4" s="134"/>
-      <c r="AS4" s="135"/>
-      <c r="AT4" s="133" t="str">
+        <v>第 10 周</v>
+      </c>
+      <c r="AN4" s="132"/>
+      <c r="AO4" s="132"/>
+      <c r="AP4" s="132"/>
+      <c r="AQ4" s="132"/>
+      <c r="AR4" s="132"/>
+      <c r="AS4" s="133"/>
+      <c r="AT4" s="131" t="str">
         <f t="shared" ref="AT4" si="4">"第 "&amp;((AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1 ) &amp;" 周"</f>
-        <v>第 6 周</v>
-      </c>
-      <c r="AU4" s="134"/>
-      <c r="AV4" s="134"/>
-      <c r="AW4" s="134"/>
-      <c r="AX4" s="134"/>
-      <c r="AY4" s="134"/>
-      <c r="AZ4" s="135"/>
-      <c r="BA4" s="133" t="str">
+        <v>第 11 周</v>
+      </c>
+      <c r="AU4" s="132"/>
+      <c r="AV4" s="132"/>
+      <c r="AW4" s="132"/>
+      <c r="AX4" s="132"/>
+      <c r="AY4" s="132"/>
+      <c r="AZ4" s="133"/>
+      <c r="BA4" s="131" t="str">
         <f t="shared" ref="BA4" si="5">"第 "&amp;((BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1 ) &amp;" 周"</f>
-        <v>第 7 周</v>
-      </c>
-      <c r="BB4" s="134"/>
-      <c r="BC4" s="134"/>
-      <c r="BD4" s="134"/>
-      <c r="BE4" s="134"/>
-      <c r="BF4" s="134"/>
-      <c r="BG4" s="135"/>
-      <c r="BH4" s="133" t="str">
+        <v>第 12 周</v>
+      </c>
+      <c r="BB4" s="132"/>
+      <c r="BC4" s="132"/>
+      <c r="BD4" s="132"/>
+      <c r="BE4" s="132"/>
+      <c r="BF4" s="132"/>
+      <c r="BG4" s="133"/>
+      <c r="BH4" s="131" t="str">
         <f t="shared" ref="BH4" si="6">"第 "&amp;((BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1 ) &amp;" 周"</f>
-        <v>第 8 周</v>
-      </c>
-      <c r="BI4" s="134"/>
-      <c r="BJ4" s="134"/>
-      <c r="BK4" s="134"/>
-      <c r="BL4" s="134"/>
-      <c r="BM4" s="134"/>
-      <c r="BN4" s="135"/>
+        <v>第 13 周</v>
+      </c>
+      <c r="BI4" s="132"/>
+      <c r="BJ4" s="132"/>
+      <c r="BK4" s="132"/>
+      <c r="BL4" s="132"/>
+      <c r="BM4" s="132"/>
+      <c r="BN4" s="133"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="72"/>
       <c r="B5" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="138" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
       <c r="F5" s="75"/>
       <c r="G5" s="75"/>
       <c r="H5" s="75"/>
       <c r="I5" s="75"/>
       <c r="J5" s="37"/>
-      <c r="K5" s="137">
+      <c r="K5" s="134">
         <f>K6</f>
-        <v>44445</v>
-      </c>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138"/>
-      <c r="N5" s="138"/>
-      <c r="O5" s="138"/>
-      <c r="P5" s="138"/>
-      <c r="Q5" s="139"/>
-      <c r="R5" s="137">
+        <v>44480</v>
+      </c>
+      <c r="L5" s="135"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="136"/>
+      <c r="R5" s="134">
         <f>R6</f>
-        <v>44452</v>
-      </c>
-      <c r="S5" s="138"/>
-      <c r="T5" s="138"/>
-      <c r="U5" s="138"/>
-      <c r="V5" s="138"/>
-      <c r="W5" s="138"/>
-      <c r="X5" s="139"/>
-      <c r="Y5" s="137">
+        <v>44487</v>
+      </c>
+      <c r="S5" s="135"/>
+      <c r="T5" s="135"/>
+      <c r="U5" s="135"/>
+      <c r="V5" s="135"/>
+      <c r="W5" s="135"/>
+      <c r="X5" s="136"/>
+      <c r="Y5" s="134">
         <f>Y6</f>
-        <v>44459</v>
-      </c>
-      <c r="Z5" s="138"/>
-      <c r="AA5" s="138"/>
-      <c r="AB5" s="138"/>
-      <c r="AC5" s="138"/>
-      <c r="AD5" s="138"/>
-      <c r="AE5" s="139"/>
-      <c r="AF5" s="137">
+        <v>44494</v>
+      </c>
+      <c r="Z5" s="135"/>
+      <c r="AA5" s="135"/>
+      <c r="AB5" s="135"/>
+      <c r="AC5" s="135"/>
+      <c r="AD5" s="135"/>
+      <c r="AE5" s="136"/>
+      <c r="AF5" s="134">
         <f>AF6</f>
-        <v>44466</v>
-      </c>
-      <c r="AG5" s="138"/>
-      <c r="AH5" s="138"/>
-      <c r="AI5" s="138"/>
-      <c r="AJ5" s="138"/>
-      <c r="AK5" s="138"/>
-      <c r="AL5" s="139"/>
-      <c r="AM5" s="137">
+        <v>44501</v>
+      </c>
+      <c r="AG5" s="135"/>
+      <c r="AH5" s="135"/>
+      <c r="AI5" s="135"/>
+      <c r="AJ5" s="135"/>
+      <c r="AK5" s="135"/>
+      <c r="AL5" s="136"/>
+      <c r="AM5" s="134">
         <f>AM6</f>
-        <v>44473</v>
-      </c>
-      <c r="AN5" s="138"/>
-      <c r="AO5" s="138"/>
-      <c r="AP5" s="138"/>
-      <c r="AQ5" s="138"/>
-      <c r="AR5" s="138"/>
-      <c r="AS5" s="139"/>
-      <c r="AT5" s="137">
+        <v>44508</v>
+      </c>
+      <c r="AN5" s="135"/>
+      <c r="AO5" s="135"/>
+      <c r="AP5" s="135"/>
+      <c r="AQ5" s="135"/>
+      <c r="AR5" s="135"/>
+      <c r="AS5" s="136"/>
+      <c r="AT5" s="134">
         <f>AT6</f>
-        <v>44480</v>
-      </c>
-      <c r="AU5" s="138"/>
-      <c r="AV5" s="138"/>
-      <c r="AW5" s="138"/>
-      <c r="AX5" s="138"/>
-      <c r="AY5" s="138"/>
-      <c r="AZ5" s="139"/>
-      <c r="BA5" s="137">
+        <v>44515</v>
+      </c>
+      <c r="AU5" s="135"/>
+      <c r="AV5" s="135"/>
+      <c r="AW5" s="135"/>
+      <c r="AX5" s="135"/>
+      <c r="AY5" s="135"/>
+      <c r="AZ5" s="136"/>
+      <c r="BA5" s="134">
         <f>BA6</f>
-        <v>44487</v>
-      </c>
-      <c r="BB5" s="138"/>
-      <c r="BC5" s="138"/>
-      <c r="BD5" s="138"/>
-      <c r="BE5" s="138"/>
-      <c r="BF5" s="138"/>
-      <c r="BG5" s="139"/>
-      <c r="BH5" s="137">
+        <v>44522</v>
+      </c>
+      <c r="BB5" s="135"/>
+      <c r="BC5" s="135"/>
+      <c r="BD5" s="135"/>
+      <c r="BE5" s="135"/>
+      <c r="BF5" s="135"/>
+      <c r="BG5" s="136"/>
+      <c r="BH5" s="134">
         <f>BH6</f>
-        <v>44494</v>
-      </c>
-      <c r="BI5" s="138"/>
-      <c r="BJ5" s="138"/>
-      <c r="BK5" s="138"/>
-      <c r="BL5" s="138"/>
-      <c r="BM5" s="138"/>
-      <c r="BN5" s="139"/>
+        <v>44529</v>
+      </c>
+      <c r="BI5" s="135"/>
+      <c r="BJ5" s="135"/>
+      <c r="BK5" s="135"/>
+      <c r="BL5" s="135"/>
+      <c r="BM5" s="135"/>
+      <c r="BN5" s="136"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
@@ -4063,227 +4041,227 @@
       <c r="J6" s="37"/>
       <c r="K6" s="60">
         <f>C4-WEEKDAY(C4,1)+2+7*(H4-1)</f>
-        <v>44445</v>
+        <v>44480</v>
       </c>
       <c r="L6" s="52">
         <f t="shared" ref="L6:AQ6" si="7">K6+1</f>
-        <v>44446</v>
+        <v>44481</v>
       </c>
       <c r="M6" s="52">
         <f t="shared" si="7"/>
-        <v>44447</v>
+        <v>44482</v>
       </c>
       <c r="N6" s="52">
         <f t="shared" si="7"/>
-        <v>44448</v>
+        <v>44483</v>
       </c>
       <c r="O6" s="52">
         <f t="shared" si="7"/>
-        <v>44449</v>
+        <v>44484</v>
       </c>
       <c r="P6" s="52">
         <f t="shared" si="7"/>
-        <v>44450</v>
+        <v>44485</v>
       </c>
       <c r="Q6" s="61">
         <f t="shared" si="7"/>
-        <v>44451</v>
+        <v>44486</v>
       </c>
       <c r="R6" s="60">
         <f t="shared" si="7"/>
-        <v>44452</v>
+        <v>44487</v>
       </c>
       <c r="S6" s="52">
         <f t="shared" si="7"/>
-        <v>44453</v>
+        <v>44488</v>
       </c>
       <c r="T6" s="52">
         <f t="shared" si="7"/>
-        <v>44454</v>
+        <v>44489</v>
       </c>
       <c r="U6" s="52">
         <f t="shared" si="7"/>
-        <v>44455</v>
+        <v>44490</v>
       </c>
       <c r="V6" s="52">
         <f t="shared" si="7"/>
-        <v>44456</v>
+        <v>44491</v>
       </c>
       <c r="W6" s="52">
         <f t="shared" si="7"/>
-        <v>44457</v>
+        <v>44492</v>
       </c>
       <c r="X6" s="61">
         <f t="shared" si="7"/>
-        <v>44458</v>
+        <v>44493</v>
       </c>
       <c r="Y6" s="60">
         <f t="shared" si="7"/>
-        <v>44459</v>
+        <v>44494</v>
       </c>
       <c r="Z6" s="52">
         <f t="shared" si="7"/>
-        <v>44460</v>
+        <v>44495</v>
       </c>
       <c r="AA6" s="52">
         <f t="shared" si="7"/>
-        <v>44461</v>
+        <v>44496</v>
       </c>
       <c r="AB6" s="52">
         <f t="shared" si="7"/>
-        <v>44462</v>
+        <v>44497</v>
       </c>
       <c r="AC6" s="52">
         <f t="shared" si="7"/>
-        <v>44463</v>
+        <v>44498</v>
       </c>
       <c r="AD6" s="52">
         <f t="shared" si="7"/>
-        <v>44464</v>
+        <v>44499</v>
       </c>
       <c r="AE6" s="61">
         <f t="shared" si="7"/>
-        <v>44465</v>
+        <v>44500</v>
       </c>
       <c r="AF6" s="60">
         <f t="shared" si="7"/>
-        <v>44466</v>
+        <v>44501</v>
       </c>
       <c r="AG6" s="52">
         <f t="shared" si="7"/>
-        <v>44467</v>
+        <v>44502</v>
       </c>
       <c r="AH6" s="52">
         <f t="shared" si="7"/>
-        <v>44468</v>
+        <v>44503</v>
       </c>
       <c r="AI6" s="52">
         <f t="shared" si="7"/>
-        <v>44469</v>
+        <v>44504</v>
       </c>
       <c r="AJ6" s="52">
         <f t="shared" si="7"/>
-        <v>44470</v>
+        <v>44505</v>
       </c>
       <c r="AK6" s="52">
         <f t="shared" si="7"/>
-        <v>44471</v>
+        <v>44506</v>
       </c>
       <c r="AL6" s="61">
         <f t="shared" si="7"/>
-        <v>44472</v>
+        <v>44507</v>
       </c>
       <c r="AM6" s="60">
         <f t="shared" si="7"/>
-        <v>44473</v>
+        <v>44508</v>
       </c>
       <c r="AN6" s="52">
         <f t="shared" si="7"/>
-        <v>44474</v>
+        <v>44509</v>
       </c>
       <c r="AO6" s="52">
         <f t="shared" si="7"/>
-        <v>44475</v>
+        <v>44510</v>
       </c>
       <c r="AP6" s="52">
         <f t="shared" si="7"/>
-        <v>44476</v>
+        <v>44511</v>
       </c>
       <c r="AQ6" s="52">
         <f t="shared" si="7"/>
-        <v>44477</v>
+        <v>44512</v>
       </c>
       <c r="AR6" s="52">
         <f t="shared" ref="AR6:BN6" si="8">AQ6+1</f>
-        <v>44478</v>
+        <v>44513</v>
       </c>
       <c r="AS6" s="61">
         <f t="shared" si="8"/>
-        <v>44479</v>
+        <v>44514</v>
       </c>
       <c r="AT6" s="60">
         <f t="shared" si="8"/>
-        <v>44480</v>
+        <v>44515</v>
       </c>
       <c r="AU6" s="52">
         <f t="shared" si="8"/>
-        <v>44481</v>
+        <v>44516</v>
       </c>
       <c r="AV6" s="52">
         <f t="shared" si="8"/>
-        <v>44482</v>
+        <v>44517</v>
       </c>
       <c r="AW6" s="52">
         <f t="shared" si="8"/>
-        <v>44483</v>
+        <v>44518</v>
       </c>
       <c r="AX6" s="52">
         <f t="shared" si="8"/>
-        <v>44484</v>
+        <v>44519</v>
       </c>
       <c r="AY6" s="52">
         <f t="shared" si="8"/>
-        <v>44485</v>
+        <v>44520</v>
       </c>
       <c r="AZ6" s="61">
         <f t="shared" si="8"/>
-        <v>44486</v>
+        <v>44521</v>
       </c>
       <c r="BA6" s="60">
         <f t="shared" si="8"/>
-        <v>44487</v>
+        <v>44522</v>
       </c>
       <c r="BB6" s="52">
         <f t="shared" si="8"/>
-        <v>44488</v>
+        <v>44523</v>
       </c>
       <c r="BC6" s="52">
         <f t="shared" si="8"/>
-        <v>44489</v>
+        <v>44524</v>
       </c>
       <c r="BD6" s="52">
         <f t="shared" si="8"/>
-        <v>44490</v>
+        <v>44525</v>
       </c>
       <c r="BE6" s="52">
         <f t="shared" si="8"/>
-        <v>44491</v>
+        <v>44526</v>
       </c>
       <c r="BF6" s="52">
         <f t="shared" si="8"/>
-        <v>44492</v>
+        <v>44527</v>
       </c>
       <c r="BG6" s="61">
         <f t="shared" si="8"/>
-        <v>44493</v>
+        <v>44528</v>
       </c>
       <c r="BH6" s="60">
         <f t="shared" si="8"/>
-        <v>44494</v>
+        <v>44529</v>
       </c>
       <c r="BI6" s="52">
         <f t="shared" si="8"/>
-        <v>44495</v>
+        <v>44530</v>
       </c>
       <c r="BJ6" s="52">
         <f t="shared" si="8"/>
-        <v>44496</v>
+        <v>44531</v>
       </c>
       <c r="BK6" s="52">
         <f t="shared" si="8"/>
-        <v>44497</v>
+        <v>44532</v>
       </c>
       <c r="BL6" s="52">
         <f t="shared" si="8"/>
-        <v>44498</v>
+        <v>44533</v>
       </c>
       <c r="BM6" s="52">
         <f t="shared" si="8"/>
-        <v>44499</v>
+        <v>44534</v>
       </c>
       <c r="BN6" s="61">
         <f t="shared" si="8"/>
-        <v>44500</v>
+        <v>44535</v>
       </c>
     </row>
     <row r="7" spans="1:66" s="86" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -4560,7 +4538,7 @@
       <c r="G8" s="57"/>
       <c r="H8" s="58"/>
       <c r="I8" s="59" t="str">
-        <f t="shared" ref="I8:I51" si="11">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I57" si="11">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="62"/>
@@ -4623,11 +4601,11 @@
     </row>
     <row r="9" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="str">
-        <f t="shared" ref="A9:A12" si="12">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A9:A14" si="12">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
       <c r="B9" s="89" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C9" s="123" t="s">
         <v>129</v>
@@ -4647,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="51">
-        <f t="shared" si="11"/>
+        <f>IF(OR(F9=0,E9=0)," - ",NETWORKDAYS(E9,F9))</f>
         <v>3</v>
       </c>
       <c r="J9" s="63"/>
@@ -4710,32 +4688,32 @@
     </row>
     <row r="10" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="str">
-        <f t="shared" si="12"/>
-        <v>1.2</v>
-      </c>
-      <c r="B10" s="89" t="s">
-        <v>123</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
+      </c>
+      <c r="B10" s="127" t="s">
+        <v>122</v>
       </c>
       <c r="C10" s="123" t="s">
         <v>129</v>
       </c>
       <c r="D10" s="88"/>
       <c r="E10" s="65">
+        <v>44445</v>
+      </c>
+      <c r="F10" s="66">
+        <f>IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
         <v>44446</v>
       </c>
-      <c r="F10" s="66">
-        <f t="shared" ref="F10:F51" si="13">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
-        <v>44446</v>
-      </c>
       <c r="G10" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="50">
         <v>1</v>
       </c>
       <c r="I10" s="51">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f>IF(OR(F10=0,E10=0)," - ",NETWORKDAYS(E10,F10))</f>
+        <v>2</v>
       </c>
       <c r="J10" s="63"/>
       <c r="K10" s="69"/>
@@ -4797,37 +4775,37 @@
     </row>
     <row r="11" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="str">
-        <f t="shared" si="12"/>
-        <v>1.3</v>
-      </c>
-      <c r="B11" s="89" t="s">
-        <v>124</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B11" s="127" t="s">
+        <v>123</v>
       </c>
       <c r="C11" s="123" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D11" s="88"/>
       <c r="E11" s="65">
-        <v>44447</v>
+        <v>44446</v>
       </c>
       <c r="F11" s="66">
-        <f t="shared" si="13"/>
-        <v>44452</v>
+        <f>IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
+        <v>44446</v>
       </c>
       <c r="G11" s="49">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H11" s="50">
         <v>1</v>
       </c>
       <c r="I11" s="51">
-        <f t="shared" si="11"/>
-        <v>4</v>
+        <f>IF(OR(F11=0,E11=0)," - ",NETWORKDAYS(E11,F11))</f>
+        <v>1</v>
       </c>
       <c r="J11" s="63"/>
       <c r="K11" s="69"/>
       <c r="L11" s="69"/>
-      <c r="M11" s="70"/>
+      <c r="M11" s="69"/>
       <c r="N11" s="69"/>
       <c r="O11" s="69"/>
       <c r="P11" s="69"/>
@@ -4884,22 +4862,22 @@
     </row>
     <row r="12" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="str">
-        <f t="shared" si="12"/>
-        <v>1.4</v>
-      </c>
-      <c r="B12" s="89" t="s">
-        <v>125</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.3</v>
+      </c>
+      <c r="B12" s="127" t="s">
+        <v>169</v>
       </c>
       <c r="C12" s="123" t="s">
         <v>129</v>
       </c>
       <c r="D12" s="88"/>
       <c r="E12" s="65">
-        <v>44454</v>
+        <v>44447</v>
       </c>
       <c r="F12" s="66">
-        <f t="shared" si="13"/>
-        <v>44454</v>
+        <f>IF(ISBLANK(E12)," - ",IF(G12=0,E12,E12+G12-1))</f>
+        <v>44447</v>
       </c>
       <c r="G12" s="49">
         <v>1</v>
@@ -4908,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="51">
-        <f t="shared" si="11"/>
+        <f>IF(OR(F12=0,E12=0)," - ",NETWORKDAYS(E12,F12))</f>
         <v>1</v>
       </c>
       <c r="J12" s="63"/>
@@ -4969,105 +4947,114 @@
       <c r="BM12" s="69"/>
       <c r="BN12" s="69"/>
     </row>
-    <row r="13" spans="1:66" s="42" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>2</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="46" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J13" s="64"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71"/>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="71"/>
-      <c r="AB13" s="71"/>
-      <c r="AC13" s="71"/>
-      <c r="AD13" s="71"/>
-      <c r="AE13" s="71"/>
-      <c r="AF13" s="71"/>
-      <c r="AG13" s="71"/>
-      <c r="AH13" s="71"/>
-      <c r="AI13" s="71"/>
-      <c r="AJ13" s="71"/>
-      <c r="AK13" s="71"/>
-      <c r="AL13" s="71"/>
-      <c r="AM13" s="71"/>
-      <c r="AN13" s="71"/>
-      <c r="AO13" s="71"/>
-      <c r="AP13" s="71"/>
-      <c r="AQ13" s="71"/>
-      <c r="AR13" s="71"/>
-      <c r="AS13" s="71"/>
-      <c r="AT13" s="71"/>
-      <c r="AU13" s="71"/>
-      <c r="AV13" s="71"/>
-      <c r="AW13" s="71"/>
-      <c r="AX13" s="71"/>
-      <c r="AY13" s="71"/>
-      <c r="AZ13" s="71"/>
-      <c r="BA13" s="71"/>
-      <c r="BB13" s="71"/>
-      <c r="BC13" s="71"/>
-      <c r="BD13" s="71"/>
-      <c r="BE13" s="71"/>
-      <c r="BF13" s="71"/>
-      <c r="BG13" s="71"/>
-      <c r="BH13" s="71"/>
-      <c r="BI13" s="71"/>
-      <c r="BJ13" s="71"/>
-      <c r="BK13" s="71"/>
-      <c r="BL13" s="71"/>
-      <c r="BM13" s="71"/>
-      <c r="BN13" s="71"/>
+    <row r="13" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A13" s="47" t="str">
+        <f t="shared" si="12"/>
+        <v>1.2</v>
+      </c>
+      <c r="B13" s="89" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="123" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="88"/>
+      <c r="E13" s="65">
+        <v>44447</v>
+      </c>
+      <c r="F13" s="66">
+        <f t="shared" ref="F13" si="13">IF(ISBLANK(E13)," - ",IF(G13=0,E13,E13+G13-1))</f>
+        <v>44449</v>
+      </c>
+      <c r="G13" s="49">
+        <v>3</v>
+      </c>
+      <c r="H13" s="50">
+        <v>1</v>
+      </c>
+      <c r="I13" s="51">
+        <f t="shared" ref="I13" si="14">IF(OR(F13=0,E13=0)," - ",NETWORKDAYS(E13,F13))</f>
+        <v>3</v>
+      </c>
+      <c r="J13" s="63"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="69"/>
+      <c r="AA13" s="69"/>
+      <c r="AB13" s="69"/>
+      <c r="AC13" s="69"/>
+      <c r="AD13" s="69"/>
+      <c r="AE13" s="69"/>
+      <c r="AF13" s="69"/>
+      <c r="AG13" s="69"/>
+      <c r="AH13" s="69"/>
+      <c r="AI13" s="69"/>
+      <c r="AJ13" s="69"/>
+      <c r="AK13" s="69"/>
+      <c r="AL13" s="69"/>
+      <c r="AM13" s="69"/>
+      <c r="AN13" s="69"/>
+      <c r="AO13" s="69"/>
+      <c r="AP13" s="69"/>
+      <c r="AQ13" s="69"/>
+      <c r="AR13" s="69"/>
+      <c r="AS13" s="69"/>
+      <c r="AT13" s="69"/>
+      <c r="AU13" s="69"/>
+      <c r="AV13" s="69"/>
+      <c r="AW13" s="69"/>
+      <c r="AX13" s="69"/>
+      <c r="AY13" s="69"/>
+      <c r="AZ13" s="69"/>
+      <c r="BA13" s="69"/>
+      <c r="BB13" s="69"/>
+      <c r="BC13" s="69"/>
+      <c r="BD13" s="69"/>
+      <c r="BE13" s="69"/>
+      <c r="BF13" s="69"/>
+      <c r="BG13" s="69"/>
+      <c r="BH13" s="69"/>
+      <c r="BI13" s="69"/>
+      <c r="BJ13" s="69"/>
+      <c r="BK13" s="69"/>
+      <c r="BL13" s="69"/>
+      <c r="BM13" s="69"/>
+      <c r="BN13" s="69"/>
     </row>
     <row r="14" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.1</v>
+        <f t="shared" si="12"/>
+        <v>1.3</v>
       </c>
       <c r="B14" s="89" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C14" s="123" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D14" s="88"/>
       <c r="E14" s="65">
-        <v>44459</v>
+        <v>44447</v>
       </c>
       <c r="F14" s="66">
-        <f t="shared" si="13"/>
-        <v>44462</v>
+        <f t="shared" ref="F14:F57" si="15">IF(ISBLANK(E14)," - ",IF(G14=0,E14,E14+G14-1))</f>
+        <v>44452</v>
       </c>
       <c r="G14" s="49">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H14" s="50">
         <v>1</v>
@@ -5079,7 +5066,7 @@
       <c r="J14" s="63"/>
       <c r="K14" s="69"/>
       <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
+      <c r="M14" s="70"/>
       <c r="N14" s="69"/>
       <c r="O14" s="69"/>
       <c r="P14" s="69"/>
@@ -5134,121 +5121,112 @@
       <c r="BM14" s="69"/>
       <c r="BN14" s="69"/>
     </row>
-    <row r="15" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.2</v>
-      </c>
-      <c r="B15" s="89" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="123" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="65">
-        <v>44460</v>
-      </c>
-      <c r="F15" s="66">
-        <f t="shared" si="13"/>
-        <v>44461</v>
-      </c>
-      <c r="G15" s="49">
+    <row r="15" spans="1:66" s="42" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
-      <c r="H15" s="50">
-        <v>1</v>
-      </c>
-      <c r="I15" s="51">
+      <c r="B15" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46" t="str">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="J15" s="63"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="69"/>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="69"/>
-      <c r="AA15" s="69"/>
-      <c r="AB15" s="69"/>
-      <c r="AC15" s="69"/>
-      <c r="AD15" s="69"/>
-      <c r="AE15" s="69"/>
-      <c r="AF15" s="69"/>
-      <c r="AG15" s="69"/>
-      <c r="AH15" s="69"/>
-      <c r="AI15" s="69"/>
-      <c r="AJ15" s="69"/>
-      <c r="AK15" s="69"/>
-      <c r="AL15" s="69"/>
-      <c r="AM15" s="69"/>
-      <c r="AN15" s="69"/>
-      <c r="AO15" s="69"/>
-      <c r="AP15" s="69"/>
-      <c r="AQ15" s="69"/>
-      <c r="AR15" s="69"/>
-      <c r="AS15" s="69"/>
-      <c r="AT15" s="69"/>
-      <c r="AU15" s="69"/>
-      <c r="AV15" s="69"/>
-      <c r="AW15" s="69"/>
-      <c r="AX15" s="69"/>
-      <c r="AY15" s="69"/>
-      <c r="AZ15" s="69"/>
-      <c r="BA15" s="69"/>
-      <c r="BB15" s="69"/>
-      <c r="BC15" s="69"/>
-      <c r="BD15" s="69"/>
-      <c r="BE15" s="69"/>
-      <c r="BF15" s="69"/>
-      <c r="BG15" s="69"/>
-      <c r="BH15" s="69"/>
-      <c r="BI15" s="69"/>
-      <c r="BJ15" s="69"/>
-      <c r="BK15" s="69"/>
-      <c r="BL15" s="69"/>
-      <c r="BM15" s="69"/>
-      <c r="BN15" s="69"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J15" s="64"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="71"/>
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="71"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="71"/>
+      <c r="AE15" s="71"/>
+      <c r="AF15" s="71"/>
+      <c r="AG15" s="71"/>
+      <c r="AH15" s="71"/>
+      <c r="AI15" s="71"/>
+      <c r="AJ15" s="71"/>
+      <c r="AK15" s="71"/>
+      <c r="AL15" s="71"/>
+      <c r="AM15" s="71"/>
+      <c r="AN15" s="71"/>
+      <c r="AO15" s="71"/>
+      <c r="AP15" s="71"/>
+      <c r="AQ15" s="71"/>
+      <c r="AR15" s="71"/>
+      <c r="AS15" s="71"/>
+      <c r="AT15" s="71"/>
+      <c r="AU15" s="71"/>
+      <c r="AV15" s="71"/>
+      <c r="AW15" s="71"/>
+      <c r="AX15" s="71"/>
+      <c r="AY15" s="71"/>
+      <c r="AZ15" s="71"/>
+      <c r="BA15" s="71"/>
+      <c r="BB15" s="71"/>
+      <c r="BC15" s="71"/>
+      <c r="BD15" s="71"/>
+      <c r="BE15" s="71"/>
+      <c r="BF15" s="71"/>
+      <c r="BG15" s="71"/>
+      <c r="BH15" s="71"/>
+      <c r="BI15" s="71"/>
+      <c r="BJ15" s="71"/>
+      <c r="BK15" s="71"/>
+      <c r="BL15" s="71"/>
+      <c r="BM15" s="71"/>
+      <c r="BN15" s="71"/>
     </row>
     <row r="16" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="B16" s="89" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C16" s="123" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D16" s="88"/>
       <c r="E16" s="65">
-        <v>44463</v>
+        <v>44459</v>
       </c>
       <c r="F16" s="66">
-        <f t="shared" si="13"/>
-        <v>44483</v>
+        <f t="shared" si="15"/>
+        <v>44462</v>
       </c>
       <c r="G16" s="49">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="H16" s="50">
         <v>1</v>
       </c>
       <c r="I16" s="51">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J16" s="63"/>
       <c r="K16" s="69"/>
@@ -5311,31 +5289,31 @@
     <row r="17" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.3.1</v>
-      </c>
-      <c r="B17" s="128" t="s">
-        <v>138</v>
+        <v>2.1.1</v>
+      </c>
+      <c r="B17" s="127" t="s">
+        <v>135</v>
       </c>
       <c r="C17" s="123" t="s">
         <v>129</v>
       </c>
       <c r="D17" s="88"/>
       <c r="E17" s="65">
-        <v>44463</v>
+        <v>44460</v>
       </c>
       <c r="F17" s="66">
-        <f t="shared" si="13"/>
-        <v>44468</v>
+        <f t="shared" si="15"/>
+        <v>44461</v>
       </c>
       <c r="G17" s="49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H17" s="50">
         <v>1</v>
       </c>
       <c r="I17" s="51">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J17" s="63"/>
       <c r="K17" s="69"/>
@@ -5397,11 +5375,11 @@
     </row>
     <row r="18" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>2.3.1.1</v>
-      </c>
-      <c r="B18" s="129" t="s">
-        <v>142</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.2</v>
+      </c>
+      <c r="B18" s="89" t="s">
+        <v>136</v>
       </c>
       <c r="C18" s="123" t="s">
         <v>129</v>
@@ -5411,18 +5389,18 @@
         <v>44463</v>
       </c>
       <c r="F18" s="66">
-        <f t="shared" si="13"/>
-        <v>44466</v>
+        <f t="shared" si="15"/>
+        <v>44483</v>
       </c>
       <c r="G18" s="49">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H18" s="50">
         <v>1</v>
       </c>
       <c r="I18" s="51">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J18" s="63"/>
       <c r="K18" s="69"/>
@@ -5484,32 +5462,32 @@
     </row>
     <row r="19" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>2.3.1.2</v>
-      </c>
-      <c r="B19" s="129" t="s">
-        <v>143</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>2.2.1</v>
+      </c>
+      <c r="B19" s="128" t="s">
+        <v>138</v>
       </c>
       <c r="C19" s="123" t="s">
         <v>129</v>
       </c>
       <c r="D19" s="88"/>
       <c r="E19" s="65">
-        <v>44466</v>
+        <v>44463</v>
       </c>
       <c r="F19" s="66">
-        <f t="shared" ref="F19:F20" si="14">IF(ISBLANK(E19)," - ",IF(G19=0,E19,E19+G19-1))</f>
-        <v>44466</v>
+        <f t="shared" si="15"/>
+        <v>44468</v>
       </c>
       <c r="G19" s="49">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H19" s="50">
         <v>1</v>
       </c>
       <c r="I19" s="51">
-        <f t="shared" ref="I19:I20" si="15">IF(OR(F19=0,E19=0)," - ",NETWORKDAYS(E19,F19))</f>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="J19" s="63"/>
       <c r="K19" s="69"/>
@@ -5572,33 +5550,33 @@
     <row r="20" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>2.3.1.3</v>
+        <v>2.2.1.1</v>
       </c>
       <c r="B20" s="129" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C20" s="123" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="125"/>
+      <c r="D20" s="88"/>
       <c r="E20" s="65">
-        <v>44467</v>
+        <v>44463</v>
       </c>
       <c r="F20" s="66">
-        <f t="shared" si="14"/>
-        <v>44469</v>
+        <f t="shared" si="15"/>
+        <v>44466</v>
       </c>
       <c r="G20" s="49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" s="50">
         <v>1</v>
       </c>
       <c r="I20" s="51">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="J20" s="126"/>
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J20" s="63"/>
       <c r="K20" s="69"/>
       <c r="L20" s="69"/>
       <c r="M20" s="69"/>
@@ -5659,31 +5637,31 @@
     <row r="21" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>2.3.1.4</v>
+        <v>2.2.1.2</v>
       </c>
       <c r="B21" s="129" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C21" s="123" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="D21" s="88"/>
       <c r="E21" s="65">
-        <v>44467</v>
+        <v>44466</v>
       </c>
       <c r="F21" s="66">
-        <f t="shared" ref="F21:F32" si="16">IF(ISBLANK(E21)," - ",IF(G21=0,E21,E21+G21-1))</f>
-        <v>44469</v>
+        <f t="shared" ref="F21:F22" si="16">IF(ISBLANK(E21)," - ",IF(G21=0,E21,E21+G21-1))</f>
+        <v>44466</v>
       </c>
       <c r="G21" s="49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21" s="50">
         <v>1</v>
       </c>
       <c r="I21" s="51">
-        <f t="shared" ref="I21:I32" si="17">IF(OR(F21=0,E21=0)," - ",NETWORKDAYS(E21,F21))</f>
-        <v>3</v>
+        <f t="shared" ref="I21:I22" si="17">IF(OR(F21=0,E21=0)," - ",NETWORKDAYS(E21,F21))</f>
+        <v>1</v>
       </c>
       <c r="J21" s="63"/>
       <c r="K21" s="69"/>
@@ -5745,32 +5723,32 @@
     </row>
     <row r="22" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.3.2</v>
-      </c>
-      <c r="B22" s="127" t="s">
-        <v>141</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>2.2.1.3</v>
+      </c>
+      <c r="B22" s="129" t="s">
+        <v>144</v>
       </c>
       <c r="C22" s="123" t="s">
         <v>129</v>
       </c>
       <c r="D22" s="125"/>
       <c r="E22" s="65">
-        <v>44470</v>
+        <v>44467</v>
       </c>
       <c r="F22" s="66">
         <f t="shared" si="16"/>
-        <v>44475</v>
+        <v>44469</v>
       </c>
       <c r="G22" s="49">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H22" s="50">
         <v>1</v>
       </c>
       <c r="I22" s="51">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J22" s="126"/>
       <c r="K22" s="69"/>
@@ -5833,33 +5811,33 @@
     <row r="23" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>2.3.2.1</v>
+        <v>2.2.1.4</v>
       </c>
       <c r="B23" s="129" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C23" s="123" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="125"/>
+        <v>148</v>
+      </c>
+      <c r="D23" s="88"/>
       <c r="E23" s="65">
-        <v>44470</v>
+        <v>44467</v>
       </c>
       <c r="F23" s="66">
-        <f t="shared" si="16"/>
-        <v>44473</v>
+        <f t="shared" ref="F23:F34" si="18">IF(ISBLANK(E23)," - ",IF(G23=0,E23,E23+G23-1))</f>
+        <v>44469</v>
       </c>
       <c r="G23" s="49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" s="50">
         <v>1</v>
       </c>
       <c r="I23" s="51">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="J23" s="126"/>
+        <f t="shared" ref="I23:I34" si="19">IF(OR(F23=0,E23=0)," - ",NETWORKDAYS(E23,F23))</f>
+        <v>3</v>
+      </c>
+      <c r="J23" s="63"/>
       <c r="K23" s="69"/>
       <c r="L23" s="69"/>
       <c r="M23" s="69"/>
@@ -5919,32 +5897,32 @@
     </row>
     <row r="24" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>2.3.2.2</v>
-      </c>
-      <c r="B24" s="129" t="s">
-        <v>139</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>2.2.2</v>
+      </c>
+      <c r="B24" s="127" t="s">
+        <v>141</v>
       </c>
       <c r="C24" s="123" t="s">
         <v>129</v>
       </c>
       <c r="D24" s="125"/>
       <c r="E24" s="65">
-        <v>44473</v>
+        <v>44470</v>
       </c>
       <c r="F24" s="66">
-        <f t="shared" si="16"/>
-        <v>44474</v>
+        <f t="shared" si="18"/>
+        <v>44475</v>
       </c>
       <c r="G24" s="49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H24" s="50">
         <v>1</v>
       </c>
       <c r="I24" s="51">
-        <f t="shared" si="17"/>
-        <v>2</v>
+        <f t="shared" si="19"/>
+        <v>4</v>
       </c>
       <c r="J24" s="126"/>
       <c r="K24" s="69"/>
@@ -6007,31 +5985,31 @@
     <row r="25" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>2.3.2.3</v>
+        <v>2.2.2.1</v>
       </c>
       <c r="B25" s="129" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C25" s="123" t="s">
         <v>129</v>
       </c>
       <c r="D25" s="125"/>
       <c r="E25" s="65">
+        <v>44470</v>
+      </c>
+      <c r="F25" s="66">
+        <f t="shared" si="18"/>
         <v>44473</v>
       </c>
-      <c r="F25" s="66">
-        <f t="shared" si="16"/>
-        <v>44475</v>
-      </c>
       <c r="G25" s="49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" s="50">
         <v>1</v>
       </c>
       <c r="I25" s="51">
-        <f t="shared" si="17"/>
-        <v>3</v>
+        <f t="shared" si="19"/>
+        <v>2</v>
       </c>
       <c r="J25" s="126"/>
       <c r="K25" s="69"/>
@@ -6094,21 +6072,21 @@
     <row r="26" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>2.3.2.4</v>
+        <v>2.2.2.2</v>
       </c>
       <c r="B26" s="129" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C26" s="123" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="D26" s="125"/>
       <c r="E26" s="65">
+        <v>44473</v>
+      </c>
+      <c r="F26" s="66">
+        <f t="shared" si="18"/>
         <v>44474</v>
-      </c>
-      <c r="F26" s="66">
-        <f t="shared" si="16"/>
-        <v>44475</v>
       </c>
       <c r="G26" s="49">
         <v>2</v>
@@ -6117,7 +6095,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="J26" s="126"/>
@@ -6180,32 +6158,32 @@
     </row>
     <row r="27" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="str">
-        <f t="shared" ref="A27:A32" si="18">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.3.3</v>
-      </c>
-      <c r="B27" s="127" t="s">
-        <v>149</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>2.2.2.3</v>
+      </c>
+      <c r="B27" s="129" t="s">
+        <v>146</v>
       </c>
       <c r="C27" s="123" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="D27" s="125"/>
       <c r="E27" s="65">
-        <v>44476</v>
+        <v>44473</v>
       </c>
       <c r="F27" s="66">
-        <f t="shared" si="16"/>
-        <v>44479</v>
+        <f t="shared" si="18"/>
+        <v>44475</v>
       </c>
       <c r="G27" s="49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H27" s="50">
         <v>1</v>
       </c>
       <c r="I27" s="51">
-        <f t="shared" si="17"/>
-        <v>2</v>
+        <f t="shared" si="19"/>
+        <v>3</v>
       </c>
       <c r="J27" s="126"/>
       <c r="K27" s="69"/>
@@ -6267,32 +6245,32 @@
     </row>
     <row r="28" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="str">
-        <f t="shared" si="18"/>
-        <v>2.3.4</v>
-      </c>
-      <c r="B28" s="127" t="s">
-        <v>150</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>2.2.2.4</v>
+      </c>
+      <c r="B28" s="129" t="s">
+        <v>147</v>
       </c>
       <c r="C28" s="123" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D28" s="125"/>
       <c r="E28" s="65">
-        <v>44463</v>
+        <v>44474</v>
       </c>
       <c r="F28" s="66">
-        <f>IF(ISBLANK(E28)," - ",IF(G28=0,E28,E28+G28-1))</f>
-        <v>44467</v>
+        <f t="shared" si="18"/>
+        <v>44475</v>
       </c>
       <c r="G28" s="49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H28" s="50">
         <v>1</v>
       </c>
       <c r="I28" s="51">
-        <f>IF(OR(F28=0,E28=0)," - ",NETWORKDAYS(E28,F28))</f>
-        <v>3</v>
+        <f t="shared" si="19"/>
+        <v>2</v>
       </c>
       <c r="J28" s="126"/>
       <c r="K28" s="69"/>
@@ -6354,32 +6332,32 @@
     </row>
     <row r="29" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="str">
-        <f t="shared" si="18"/>
-        <v>2.3.5</v>
+        <f t="shared" ref="A29:A34" si="20">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>2.2.3</v>
       </c>
       <c r="B29" s="127" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C29" s="123" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D29" s="125"/>
       <c r="E29" s="65">
         <v>44476</v>
       </c>
       <c r="F29" s="66">
-        <f>IF(ISBLANK(E29)," - ",IF(G29=0,E29,E29+G29-1))</f>
-        <v>44480</v>
+        <f t="shared" si="18"/>
+        <v>44479</v>
       </c>
       <c r="G29" s="49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H29" s="50">
         <v>1</v>
       </c>
       <c r="I29" s="51">
-        <f>IF(OR(F29=0,E29=0)," - ",NETWORKDAYS(E29,F29))</f>
-        <v>3</v>
+        <f t="shared" si="19"/>
+        <v>2</v>
       </c>
       <c r="J29" s="126"/>
       <c r="K29" s="69"/>
@@ -6441,31 +6419,31 @@
     </row>
     <row r="30" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="str">
-        <f t="shared" si="18"/>
-        <v>2.3.6</v>
+        <f t="shared" si="20"/>
+        <v>2.2.4</v>
       </c>
       <c r="B30" s="127" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C30" s="123" t="s">
         <v>155</v>
       </c>
       <c r="D30" s="125"/>
       <c r="E30" s="65">
-        <v>44481</v>
+        <v>44463</v>
       </c>
       <c r="F30" s="66">
-        <f t="shared" si="16"/>
-        <v>44483</v>
+        <f>IF(ISBLANK(E30)," - ",IF(G30=0,E30,E30+G30-1))</f>
+        <v>44467</v>
       </c>
       <c r="G30" s="49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H30" s="50">
         <v>1</v>
       </c>
       <c r="I30" s="51">
-        <f t="shared" si="17"/>
+        <f>IF(OR(F30=0,E30=0)," - ",NETWORKDAYS(E30,F30))</f>
         <v>3</v>
       </c>
       <c r="J30" s="126"/>
@@ -6528,32 +6506,32 @@
     </row>
     <row r="31" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="47" t="str">
-        <f t="shared" si="18"/>
-        <v>2.3.7</v>
+        <f t="shared" si="20"/>
+        <v>2.2.5</v>
       </c>
       <c r="B31" s="127" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C31" s="123" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="D31" s="125"/>
       <c r="E31" s="65">
+        <v>44476</v>
+      </c>
+      <c r="F31" s="66">
+        <f>IF(ISBLANK(E31)," - ",IF(G31=0,E31,E31+G31-1))</f>
         <v>44480</v>
       </c>
-      <c r="F31" s="66">
-        <f t="shared" si="16"/>
-        <v>44480</v>
-      </c>
       <c r="G31" s="49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H31" s="50">
         <v>1</v>
       </c>
       <c r="I31" s="51">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <f>IF(OR(F31=0,E31=0)," - ",NETWORKDAYS(E31,F31))</f>
+        <v>3</v>
       </c>
       <c r="J31" s="126"/>
       <c r="K31" s="69"/>
@@ -6615,22 +6593,22 @@
     </row>
     <row r="32" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="47" t="str">
-        <f t="shared" si="18"/>
-        <v>2.3.8</v>
+        <f t="shared" si="20"/>
+        <v>2.2.6</v>
       </c>
       <c r="B32" s="127" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C32" s="123" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="D32" s="125"/>
       <c r="E32" s="65">
-        <v>44480</v>
+        <v>44481</v>
       </c>
       <c r="F32" s="66">
-        <f t="shared" si="16"/>
-        <v>44482</v>
+        <f t="shared" si="18"/>
+        <v>44483</v>
       </c>
       <c r="G32" s="49">
         <v>3</v>
@@ -6639,7 +6617,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="J32" s="126"/>
@@ -6700,117 +6678,123 @@
       <c r="BM32" s="69"/>
       <c r="BN32" s="69"/>
     </row>
-    <row r="33" spans="1:66" s="42" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>3</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="130" t="s">
-        <v>155</v>
-      </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G33" s="44"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="46" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J33" s="64"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="71"/>
-      <c r="W33" s="71"/>
-      <c r="X33" s="71"/>
-      <c r="Y33" s="71"/>
-      <c r="Z33" s="71"/>
-      <c r="AA33" s="71"/>
-      <c r="AB33" s="71"/>
-      <c r="AC33" s="71"/>
-      <c r="AD33" s="71"/>
-      <c r="AE33" s="71"/>
-      <c r="AF33" s="71"/>
-      <c r="AG33" s="71"/>
-      <c r="AH33" s="71"/>
-      <c r="AI33" s="71"/>
-      <c r="AJ33" s="71"/>
-      <c r="AK33" s="71"/>
-      <c r="AL33" s="71"/>
-      <c r="AM33" s="71"/>
-      <c r="AN33" s="71"/>
-      <c r="AO33" s="71"/>
-      <c r="AP33" s="71"/>
-      <c r="AQ33" s="71"/>
-      <c r="AR33" s="71"/>
-      <c r="AS33" s="71"/>
-      <c r="AT33" s="71"/>
-      <c r="AU33" s="71"/>
-      <c r="AV33" s="71"/>
-      <c r="AW33" s="71"/>
-      <c r="AX33" s="71"/>
-      <c r="AY33" s="71"/>
-      <c r="AZ33" s="71"/>
-      <c r="BA33" s="71"/>
-      <c r="BB33" s="71"/>
-      <c r="BC33" s="71"/>
-      <c r="BD33" s="71"/>
-      <c r="BE33" s="71"/>
-      <c r="BF33" s="71"/>
-      <c r="BG33" s="71"/>
-      <c r="BH33" s="71"/>
-      <c r="BI33" s="71"/>
-      <c r="BJ33" s="71"/>
-      <c r="BK33" s="71"/>
-      <c r="BL33" s="71"/>
-      <c r="BM33" s="71"/>
-      <c r="BN33" s="71"/>
+    <row r="33" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A33" s="47" t="str">
+        <f t="shared" si="20"/>
+        <v>2.2.7</v>
+      </c>
+      <c r="B33" s="127" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="123" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="125"/>
+      <c r="E33" s="65">
+        <v>44480</v>
+      </c>
+      <c r="F33" s="66">
+        <f t="shared" si="18"/>
+        <v>44480</v>
+      </c>
+      <c r="G33" s="49">
+        <v>1</v>
+      </c>
+      <c r="H33" s="50">
+        <v>1</v>
+      </c>
+      <c r="I33" s="51">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="J33" s="126"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="69"/>
+      <c r="Q33" s="69"/>
+      <c r="R33" s="69"/>
+      <c r="S33" s="69"/>
+      <c r="T33" s="69"/>
+      <c r="U33" s="69"/>
+      <c r="V33" s="69"/>
+      <c r="W33" s="69"/>
+      <c r="X33" s="69"/>
+      <c r="Y33" s="69"/>
+      <c r="Z33" s="69"/>
+      <c r="AA33" s="69"/>
+      <c r="AB33" s="69"/>
+      <c r="AC33" s="69"/>
+      <c r="AD33" s="69"/>
+      <c r="AE33" s="69"/>
+      <c r="AF33" s="69"/>
+      <c r="AG33" s="69"/>
+      <c r="AH33" s="69"/>
+      <c r="AI33" s="69"/>
+      <c r="AJ33" s="69"/>
+      <c r="AK33" s="69"/>
+      <c r="AL33" s="69"/>
+      <c r="AM33" s="69"/>
+      <c r="AN33" s="69"/>
+      <c r="AO33" s="69"/>
+      <c r="AP33" s="69"/>
+      <c r="AQ33" s="69"/>
+      <c r="AR33" s="69"/>
+      <c r="AS33" s="69"/>
+      <c r="AT33" s="69"/>
+      <c r="AU33" s="69"/>
+      <c r="AV33" s="69"/>
+      <c r="AW33" s="69"/>
+      <c r="AX33" s="69"/>
+      <c r="AY33" s="69"/>
+      <c r="AZ33" s="69"/>
+      <c r="BA33" s="69"/>
+      <c r="BB33" s="69"/>
+      <c r="BC33" s="69"/>
+      <c r="BD33" s="69"/>
+      <c r="BE33" s="69"/>
+      <c r="BF33" s="69"/>
+      <c r="BG33" s="69"/>
+      <c r="BH33" s="69"/>
+      <c r="BI33" s="69"/>
+      <c r="BJ33" s="69"/>
+      <c r="BK33" s="69"/>
+      <c r="BL33" s="69"/>
+      <c r="BM33" s="69"/>
+      <c r="BN33" s="69"/>
     </row>
     <row r="34" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="47" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
-      </c>
-      <c r="B34" s="89" t="s">
-        <v>156</v>
+        <f t="shared" si="20"/>
+        <v>2.2.8</v>
+      </c>
+      <c r="B34" s="127" t="s">
+        <v>151</v>
       </c>
       <c r="C34" s="123" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="88"/>
+      <c r="D34" s="125"/>
       <c r="E34" s="65">
         <v>44480</v>
       </c>
       <c r="F34" s="66">
-        <f t="shared" si="13"/>
-        <v>44495</v>
+        <f t="shared" si="18"/>
+        <v>44482</v>
       </c>
       <c r="G34" s="49">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H34" s="50">
         <v>1</v>
       </c>
       <c r="I34" s="51">
-        <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="J34" s="63"/>
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="J34" s="126"/>
       <c r="K34" s="69"/>
       <c r="L34" s="69"/>
       <c r="M34" s="69"/>
@@ -6868,121 +6852,115 @@
       <c r="BM34" s="69"/>
       <c r="BN34" s="69"/>
     </row>
-    <row r="35" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.1.1</v>
-      </c>
-      <c r="B35" s="127" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35" s="123" t="s">
-        <v>148</v>
-      </c>
-      <c r="D35" s="88"/>
-      <c r="E35" s="65">
-        <v>44481</v>
-      </c>
-      <c r="F35" s="66">
-        <f t="shared" si="13"/>
-        <v>44483</v>
-      </c>
-      <c r="G35" s="49">
+    <row r="35" spans="1:66" s="42" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A35" s="40" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
       </c>
-      <c r="H35" s="50">
-        <v>1</v>
-      </c>
-      <c r="I35" s="51">
+      <c r="B35" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="130" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="43"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G35" s="44"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="46" t="str">
         <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="J35" s="63"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="69"/>
-      <c r="O35" s="69"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="69"/>
-      <c r="R35" s="69"/>
-      <c r="S35" s="69"/>
-      <c r="T35" s="69"/>
-      <c r="U35" s="69"/>
-      <c r="V35" s="69"/>
-      <c r="W35" s="69"/>
-      <c r="X35" s="69"/>
-      <c r="Y35" s="69"/>
-      <c r="Z35" s="69"/>
-      <c r="AA35" s="69"/>
-      <c r="AB35" s="69"/>
-      <c r="AC35" s="69"/>
-      <c r="AD35" s="69"/>
-      <c r="AE35" s="69"/>
-      <c r="AF35" s="69"/>
-      <c r="AG35" s="69"/>
-      <c r="AH35" s="69"/>
-      <c r="AI35" s="69"/>
-      <c r="AJ35" s="69"/>
-      <c r="AK35" s="69"/>
-      <c r="AL35" s="69"/>
-      <c r="AM35" s="69"/>
-      <c r="AN35" s="69"/>
-      <c r="AO35" s="69"/>
-      <c r="AP35" s="69"/>
-      <c r="AQ35" s="69"/>
-      <c r="AR35" s="69"/>
-      <c r="AS35" s="69"/>
-      <c r="AT35" s="69"/>
-      <c r="AU35" s="69"/>
-      <c r="AV35" s="69"/>
-      <c r="AW35" s="69"/>
-      <c r="AX35" s="69"/>
-      <c r="AY35" s="69"/>
-      <c r="AZ35" s="69"/>
-      <c r="BA35" s="69"/>
-      <c r="BB35" s="69"/>
-      <c r="BC35" s="69"/>
-      <c r="BD35" s="69"/>
-      <c r="BE35" s="69"/>
-      <c r="BF35" s="69"/>
-      <c r="BG35" s="69"/>
-      <c r="BH35" s="69"/>
-      <c r="BI35" s="69"/>
-      <c r="BJ35" s="69"/>
-      <c r="BK35" s="69"/>
-      <c r="BL35" s="69"/>
-      <c r="BM35" s="69"/>
-      <c r="BN35" s="69"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J35" s="64"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="71"/>
+      <c r="T35" s="71"/>
+      <c r="U35" s="71"/>
+      <c r="V35" s="71"/>
+      <c r="W35" s="71"/>
+      <c r="X35" s="71"/>
+      <c r="Y35" s="71"/>
+      <c r="Z35" s="71"/>
+      <c r="AA35" s="71"/>
+      <c r="AB35" s="71"/>
+      <c r="AC35" s="71"/>
+      <c r="AD35" s="71"/>
+      <c r="AE35" s="71"/>
+      <c r="AF35" s="71"/>
+      <c r="AG35" s="71"/>
+      <c r="AH35" s="71"/>
+      <c r="AI35" s="71"/>
+      <c r="AJ35" s="71"/>
+      <c r="AK35" s="71"/>
+      <c r="AL35" s="71"/>
+      <c r="AM35" s="71"/>
+      <c r="AN35" s="71"/>
+      <c r="AO35" s="71"/>
+      <c r="AP35" s="71"/>
+      <c r="AQ35" s="71"/>
+      <c r="AR35" s="71"/>
+      <c r="AS35" s="71"/>
+      <c r="AT35" s="71"/>
+      <c r="AU35" s="71"/>
+      <c r="AV35" s="71"/>
+      <c r="AW35" s="71"/>
+      <c r="AX35" s="71"/>
+      <c r="AY35" s="71"/>
+      <c r="AZ35" s="71"/>
+      <c r="BA35" s="71"/>
+      <c r="BB35" s="71"/>
+      <c r="BC35" s="71"/>
+      <c r="BD35" s="71"/>
+      <c r="BE35" s="71"/>
+      <c r="BF35" s="71"/>
+      <c r="BG35" s="71"/>
+      <c r="BH35" s="71"/>
+      <c r="BI35" s="71"/>
+      <c r="BJ35" s="71"/>
+      <c r="BK35" s="71"/>
+      <c r="BL35" s="71"/>
+      <c r="BM35" s="71"/>
+      <c r="BN35" s="71"/>
     </row>
     <row r="36" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>3.1.1.1</v>
-      </c>
-      <c r="B36" s="129" t="s">
-        <v>166</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.1</v>
+      </c>
+      <c r="B36" s="89" t="s">
+        <v>171</v>
       </c>
       <c r="C36" s="123" t="s">
         <v>111</v>
       </c>
       <c r="D36" s="88"/>
       <c r="E36" s="65">
-        <v>44481</v>
+        <v>44480</v>
       </c>
       <c r="F36" s="66">
-        <f t="shared" si="13"/>
-        <v>44483</v>
+        <f t="shared" si="15"/>
+        <v>44487</v>
       </c>
       <c r="G36" s="49">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H36" s="50">
         <v>1</v>
       </c>
       <c r="I36" s="51">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J36" s="63"/>
       <c r="K36" s="69"/>
@@ -7044,22 +7022,22 @@
     </row>
     <row r="37" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>3.1.1.2</v>
-      </c>
-      <c r="B37" s="129" t="s">
-        <v>167</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.1</v>
+      </c>
+      <c r="B37" s="127" t="s">
+        <v>173</v>
       </c>
       <c r="C37" s="123" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="D37" s="88"/>
       <c r="E37" s="65">
-        <v>44481</v>
+        <v>44480</v>
       </c>
       <c r="F37" s="66">
-        <f t="shared" ref="F37" si="19">IF(ISBLANK(E37)," - ",IF(G37=0,E37,E37+G37-1))</f>
-        <v>44484</v>
+        <f>IF(ISBLANK(E37)," - ",IF(G37=0,E37,E37+G37-1))</f>
+        <v>44483</v>
       </c>
       <c r="G37" s="49">
         <v>4</v>
@@ -7068,7 +7046,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="51">
-        <f t="shared" ref="I37" si="20">IF(OR(F37=0,E37=0)," - ",NETWORKDAYS(E37,F37))</f>
+        <f>IF(OR(F37=0,E37=0)," - ",NETWORKDAYS(E37,F37))</f>
         <v>4</v>
       </c>
       <c r="J37" s="63"/>
@@ -7131,11 +7109,11 @@
     </row>
     <row r="38" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.1.2</v>
-      </c>
-      <c r="B38" s="127" t="s">
-        <v>158</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.1.1.1</v>
+      </c>
+      <c r="B38" s="129" t="s">
+        <v>174</v>
       </c>
       <c r="C38" s="123" t="s">
         <v>111</v>
@@ -7145,18 +7123,18 @@
         <v>44484</v>
       </c>
       <c r="F38" s="66">
-        <f t="shared" si="13"/>
-        <v>44488</v>
+        <f>IF(ISBLANK(E38)," - ",IF(G38=0,E38,E38+G38-1))</f>
+        <v>44487</v>
       </c>
       <c r="G38" s="49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H38" s="50">
         <v>1</v>
       </c>
       <c r="I38" s="51">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f>IF(OR(F38=0,E38=0)," - ",NETWORKDAYS(E38,F38))</f>
+        <v>2</v>
       </c>
       <c r="J38" s="63"/>
       <c r="K38" s="69"/>
@@ -7218,32 +7196,32 @@
     </row>
     <row r="39" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.1.3</v>
-      </c>
-      <c r="B39" s="127" t="s">
-        <v>159</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.1.1.2</v>
+      </c>
+      <c r="B39" s="129" t="s">
+        <v>175</v>
       </c>
       <c r="C39" s="123" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D39" s="88"/>
       <c r="E39" s="65">
-        <v>44489</v>
+        <v>44484</v>
       </c>
       <c r="F39" s="66">
-        <f t="shared" si="13"/>
-        <v>44491</v>
+        <f>IF(ISBLANK(E39)," - ",IF(G39=0,E39,E39+G39-1))</f>
+        <v>44484</v>
       </c>
       <c r="G39" s="49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H39" s="50">
         <v>1</v>
       </c>
       <c r="I39" s="51">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f>IF(OR(F39=0,E39=0)," - ",NETWORKDAYS(E39,F39))</f>
+        <v>1</v>
       </c>
       <c r="J39" s="63"/>
       <c r="K39" s="69"/>
@@ -7305,32 +7283,32 @@
     </row>
     <row r="40" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A40" s="47" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>3.1.3.1</v>
-      </c>
-      <c r="B40" s="129" t="s">
-        <v>160</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.2</v>
+      </c>
+      <c r="B40" s="89" t="s">
+        <v>172</v>
       </c>
       <c r="C40" s="123" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D40" s="88"/>
       <c r="E40" s="65">
-        <v>44490</v>
+        <v>44488</v>
       </c>
       <c r="F40" s="66">
-        <f t="shared" ref="F40:F44" si="21">IF(ISBLANK(E40)," - ",IF(G40=0,E40,E40+G40-1))</f>
-        <v>44490</v>
+        <f t="shared" ref="F40" si="21">IF(ISBLANK(E40)," - ",IF(G40=0,E40,E40+G40-1))</f>
+        <v>44503</v>
       </c>
       <c r="G40" s="49">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H40" s="50">
         <v>1</v>
       </c>
       <c r="I40" s="51">
-        <f t="shared" ref="I40:I44" si="22">IF(OR(F40=0,E40=0)," - ",NETWORKDAYS(E40,F40))</f>
-        <v>1</v>
+        <f t="shared" ref="I40" si="22">IF(OR(F40=0,E40=0)," - ",NETWORKDAYS(E40,F40))</f>
+        <v>12</v>
       </c>
       <c r="J40" s="63"/>
       <c r="K40" s="69"/>
@@ -7392,32 +7370,32 @@
     </row>
     <row r="41" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>3.1.3.2</v>
-      </c>
-      <c r="B41" s="129" t="s">
-        <v>161</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.2.1</v>
+      </c>
+      <c r="B41" s="127" t="s">
+        <v>156</v>
       </c>
       <c r="C41" s="123" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D41" s="88"/>
       <c r="E41" s="65">
-        <v>44491</v>
+        <v>44488</v>
       </c>
       <c r="F41" s="66">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>44495</v>
       </c>
       <c r="G41" s="49">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H41" s="50">
         <v>1</v>
       </c>
       <c r="I41" s="51">
-        <f t="shared" si="22"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
       <c r="J41" s="63"/>
       <c r="K41" s="69"/>
@@ -7479,32 +7457,32 @@
     </row>
     <row r="42" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
-      </c>
-      <c r="B42" s="127" t="s">
-        <v>168</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.2.1.1</v>
+      </c>
+      <c r="B42" s="129" t="s">
+        <v>163</v>
       </c>
       <c r="C42" s="123" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="D42" s="88"/>
       <c r="E42" s="65">
-        <v>44496</v>
+        <v>44488</v>
       </c>
       <c r="F42" s="66">
-        <f t="shared" si="21"/>
-        <v>44517</v>
+        <f t="shared" si="15"/>
+        <v>44490</v>
       </c>
       <c r="G42" s="49">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H42" s="50">
         <v>1</v>
       </c>
       <c r="I42" s="51">
-        <f t="shared" si="22"/>
-        <v>16</v>
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
       <c r="J42" s="63"/>
       <c r="K42" s="69"/>
@@ -7566,32 +7544,32 @@
     </row>
     <row r="43" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A43" s="47" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.2.1</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.2.1.2</v>
       </c>
       <c r="B43" s="129" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C43" s="123" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D43" s="88"/>
       <c r="E43" s="65">
-        <v>44496</v>
+        <v>44489</v>
       </c>
       <c r="F43" s="66">
-        <f t="shared" si="21"/>
-        <v>44501</v>
+        <f t="shared" ref="F43" si="23">IF(ISBLANK(E43)," - ",IF(G43=0,E43,E43+G43-1))</f>
+        <v>44495</v>
       </c>
       <c r="G43" s="49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H43" s="50">
         <v>1</v>
       </c>
       <c r="I43" s="51">
-        <f t="shared" si="22"/>
-        <v>4</v>
+        <f t="shared" ref="I43" si="24">IF(OR(F43=0,E43=0)," - ",NETWORKDAYS(E43,F43))</f>
+        <v>5</v>
       </c>
       <c r="J43" s="63"/>
       <c r="K43" s="69"/>
@@ -7656,28 +7634,28 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.2.2</v>
       </c>
-      <c r="B44" s="129" t="s">
-        <v>162</v>
+      <c r="B44" s="127" t="s">
+        <v>177</v>
       </c>
       <c r="C44" s="123" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D44" s="88"/>
       <c r="E44" s="65">
-        <v>44502</v>
+        <v>44489</v>
       </c>
       <c r="F44" s="66">
-        <f t="shared" si="21"/>
-        <v>44504</v>
+        <f t="shared" si="15"/>
+        <v>44491</v>
       </c>
       <c r="G44" s="49">
         <v>3</v>
       </c>
       <c r="H44" s="50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I44" s="51">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="J44" s="63"/>
@@ -7740,32 +7718,32 @@
     </row>
     <row r="45" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A45" s="47" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.2.3</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.2.2.1</v>
       </c>
       <c r="B45" s="129" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C45" s="123" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="D45" s="88"/>
       <c r="E45" s="65">
-        <v>44505</v>
+        <v>44490</v>
       </c>
       <c r="F45" s="66">
-        <f t="shared" ref="F45:F47" si="23">IF(ISBLANK(E45)," - ",IF(G45=0,E45,E45+G45-1))</f>
-        <v>44508</v>
+        <f t="shared" ref="F45:F50" si="25">IF(ISBLANK(E45)," - ",IF(G45=0,E45,E45+G45-1))</f>
+        <v>44490</v>
       </c>
       <c r="G45" s="49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H45" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="51">
-        <f t="shared" ref="I45:I47" si="24">IF(OR(F45=0,E45=0)," - ",NETWORKDAYS(E45,F45))</f>
-        <v>2</v>
+        <f t="shared" ref="I45:I50" si="26">IF(OR(F45=0,E45=0)," - ",NETWORKDAYS(E45,F45))</f>
+        <v>1</v>
       </c>
       <c r="J45" s="63"/>
       <c r="K45" s="69"/>
@@ -7827,32 +7805,32 @@
     </row>
     <row r="46" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A46" s="47" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.2.4</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.2.2.2</v>
       </c>
       <c r="B46" s="129" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C46" s="123" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D46" s="88"/>
       <c r="E46" s="65">
-        <v>44508</v>
+        <v>44491</v>
       </c>
       <c r="F46" s="66">
-        <f t="shared" si="23"/>
-        <v>44512</v>
+        <f t="shared" ref="F46" si="27">IF(ISBLANK(E46)," - ",IF(G46=0,E46,E46+G46-1))</f>
+        <v>44491</v>
       </c>
       <c r="G46" s="49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H46" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="51">
-        <f t="shared" si="24"/>
-        <v>5</v>
+        <f t="shared" ref="I46" si="28">IF(OR(F46=0,E46=0)," - ",NETWORKDAYS(E46,F46))</f>
+        <v>1</v>
       </c>
       <c r="J46" s="63"/>
       <c r="K46" s="69"/>
@@ -7914,32 +7892,32 @@
     </row>
     <row r="47" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.2.5</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.2.2.3</v>
       </c>
       <c r="B47" s="129" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C47" s="123" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D47" s="88"/>
       <c r="E47" s="65">
-        <v>44512</v>
+        <v>44491</v>
       </c>
       <c r="F47" s="66">
-        <f t="shared" si="23"/>
-        <v>44517</v>
+        <f t="shared" si="25"/>
+        <v>44495</v>
       </c>
       <c r="G47" s="49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H47" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="51">
-        <f t="shared" si="24"/>
-        <v>4</v>
+        <f t="shared" si="26"/>
+        <v>3</v>
       </c>
       <c r="J47" s="63"/>
       <c r="K47" s="69"/>
@@ -7999,115 +7977,121 @@
       <c r="BM47" s="69"/>
       <c r="BN47" s="69"/>
     </row>
-    <row r="48" spans="1:66" s="42" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A48" s="40" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>4</v>
-      </c>
-      <c r="B48" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" s="130" t="s">
+    <row r="48" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A48" s="47" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.3</v>
+      </c>
+      <c r="B48" s="127" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" s="123" t="s">
         <v>148</v>
       </c>
-      <c r="D48" s="43"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G48" s="44"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="46" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J48" s="64"/>
-      <c r="K48" s="71"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="71"/>
-      <c r="O48" s="71"/>
-      <c r="P48" s="71"/>
-      <c r="Q48" s="71"/>
-      <c r="R48" s="71"/>
-      <c r="S48" s="71"/>
-      <c r="T48" s="71"/>
-      <c r="U48" s="71"/>
-      <c r="V48" s="71"/>
-      <c r="W48" s="71"/>
-      <c r="X48" s="71"/>
-      <c r="Y48" s="71"/>
-      <c r="Z48" s="71"/>
-      <c r="AA48" s="71"/>
-      <c r="AB48" s="71"/>
-      <c r="AC48" s="71"/>
-      <c r="AD48" s="71"/>
-      <c r="AE48" s="71"/>
-      <c r="AF48" s="71"/>
-      <c r="AG48" s="71"/>
-      <c r="AH48" s="71"/>
-      <c r="AI48" s="71"/>
-      <c r="AJ48" s="71"/>
-      <c r="AK48" s="71"/>
-      <c r="AL48" s="71"/>
-      <c r="AM48" s="71"/>
-      <c r="AN48" s="71"/>
-      <c r="AO48" s="71"/>
-      <c r="AP48" s="71"/>
-      <c r="AQ48" s="71"/>
-      <c r="AR48" s="71"/>
-      <c r="AS48" s="71"/>
-      <c r="AT48" s="71"/>
-      <c r="AU48" s="71"/>
-      <c r="AV48" s="71"/>
-      <c r="AW48" s="71"/>
-      <c r="AX48" s="71"/>
-      <c r="AY48" s="71"/>
-      <c r="AZ48" s="71"/>
-      <c r="BA48" s="71"/>
-      <c r="BB48" s="71"/>
-      <c r="BC48" s="71"/>
-      <c r="BD48" s="71"/>
-      <c r="BE48" s="71"/>
-      <c r="BF48" s="71"/>
-      <c r="BG48" s="71"/>
-      <c r="BH48" s="71"/>
-      <c r="BI48" s="71"/>
-      <c r="BJ48" s="71"/>
-      <c r="BK48" s="71"/>
-      <c r="BL48" s="71"/>
-      <c r="BM48" s="71"/>
-      <c r="BN48" s="71"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="65">
+        <v>44496</v>
+      </c>
+      <c r="F48" s="66">
+        <f t="shared" si="25"/>
+        <v>44517</v>
+      </c>
+      <c r="G48" s="49">
+        <v>22</v>
+      </c>
+      <c r="H48" s="50">
+        <v>1</v>
+      </c>
+      <c r="I48" s="51">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="J48" s="63"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="69"/>
+      <c r="P48" s="69"/>
+      <c r="Q48" s="69"/>
+      <c r="R48" s="69"/>
+      <c r="S48" s="69"/>
+      <c r="T48" s="69"/>
+      <c r="U48" s="69"/>
+      <c r="V48" s="69"/>
+      <c r="W48" s="69"/>
+      <c r="X48" s="69"/>
+      <c r="Y48" s="69"/>
+      <c r="Z48" s="69"/>
+      <c r="AA48" s="69"/>
+      <c r="AB48" s="69"/>
+      <c r="AC48" s="69"/>
+      <c r="AD48" s="69"/>
+      <c r="AE48" s="69"/>
+      <c r="AF48" s="69"/>
+      <c r="AG48" s="69"/>
+      <c r="AH48" s="69"/>
+      <c r="AI48" s="69"/>
+      <c r="AJ48" s="69"/>
+      <c r="AK48" s="69"/>
+      <c r="AL48" s="69"/>
+      <c r="AM48" s="69"/>
+      <c r="AN48" s="69"/>
+      <c r="AO48" s="69"/>
+      <c r="AP48" s="69"/>
+      <c r="AQ48" s="69"/>
+      <c r="AR48" s="69"/>
+      <c r="AS48" s="69"/>
+      <c r="AT48" s="69"/>
+      <c r="AU48" s="69"/>
+      <c r="AV48" s="69"/>
+      <c r="AW48" s="69"/>
+      <c r="AX48" s="69"/>
+      <c r="AY48" s="69"/>
+      <c r="AZ48" s="69"/>
+      <c r="BA48" s="69"/>
+      <c r="BB48" s="69"/>
+      <c r="BC48" s="69"/>
+      <c r="BD48" s="69"/>
+      <c r="BE48" s="69"/>
+      <c r="BF48" s="69"/>
+      <c r="BG48" s="69"/>
+      <c r="BH48" s="69"/>
+      <c r="BI48" s="69"/>
+      <c r="BJ48" s="69"/>
+      <c r="BK48" s="69"/>
+      <c r="BL48" s="69"/>
+      <c r="BM48" s="69"/>
+      <c r="BN48" s="69"/>
     </row>
     <row r="49" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
-      </c>
-      <c r="B49" s="89" t="s">
-        <v>170</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.3.1</v>
+      </c>
+      <c r="B49" s="129" t="s">
+        <v>165</v>
       </c>
       <c r="C49" s="123" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D49" s="88"/>
       <c r="E49" s="65">
-        <v>44518</v>
+        <v>44496</v>
       </c>
       <c r="F49" s="66">
-        <f t="shared" si="13"/>
-        <v>44518</v>
+        <f t="shared" si="25"/>
+        <v>44501</v>
       </c>
       <c r="G49" s="49">
+        <v>6</v>
+      </c>
+      <c r="H49" s="50">
         <v>1</v>
       </c>
-      <c r="H49" s="50">
-        <v>0</v>
-      </c>
       <c r="I49" s="51">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>4</v>
       </c>
       <c r="J49" s="63"/>
       <c r="K49" s="69"/>
@@ -8169,31 +8153,31 @@
     </row>
     <row r="50" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
-      </c>
-      <c r="B50" s="89" t="s">
-        <v>171</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.3.2</v>
+      </c>
+      <c r="B50" s="129" t="s">
+        <v>159</v>
       </c>
       <c r="C50" s="123" t="s">
         <v>148</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="65">
-        <v>44518</v>
+        <v>44502</v>
       </c>
       <c r="F50" s="66">
-        <f t="shared" si="13"/>
-        <v>44522</v>
+        <f t="shared" si="25"/>
+        <v>44504</v>
       </c>
       <c r="G50" s="49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H50" s="50">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I50" s="51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="J50" s="63"/>
@@ -8256,32 +8240,32 @@
     </row>
     <row r="51" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.3</v>
-      </c>
-      <c r="B51" s="89" t="s">
-        <v>172</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.3.3</v>
+      </c>
+      <c r="B51" s="129" t="s">
+        <v>160</v>
       </c>
       <c r="C51" s="123" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="D51" s="88"/>
       <c r="E51" s="65">
-        <v>44522</v>
+        <v>44505</v>
       </c>
       <c r="F51" s="66">
-        <f t="shared" si="13"/>
-        <v>44526</v>
+        <f t="shared" ref="F51:F53" si="29">IF(ISBLANK(E51)," - ",IF(G51=0,E51,E51+G51-1))</f>
+        <v>44508</v>
       </c>
       <c r="G51" s="49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H51" s="50">
         <v>0</v>
       </c>
       <c r="I51" s="51">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" ref="I51:I53" si="30">IF(OR(F51=0,E51=0)," - ",NETWORKDAYS(E51,F51))</f>
+        <v>2</v>
       </c>
       <c r="J51" s="63"/>
       <c r="K51" s="69"/>
@@ -8341,77 +8325,602 @@
       <c r="BM51" s="69"/>
       <c r="BN51" s="69"/>
     </row>
-    <row r="52" spans="1:66" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="122"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25"/>
-      <c r="Q52" s="25"/>
-      <c r="R52" s="25"/>
-      <c r="S52" s="25"/>
-      <c r="T52" s="25"/>
-      <c r="U52" s="25"/>
-      <c r="V52" s="25"/>
-      <c r="W52" s="25"/>
-      <c r="X52" s="25"/>
-      <c r="Y52" s="25"/>
-      <c r="Z52" s="25"/>
-      <c r="AA52" s="25"/>
-      <c r="AB52" s="25"/>
-      <c r="AC52" s="25"/>
-      <c r="AD52" s="25"/>
-      <c r="AE52" s="25"/>
-      <c r="AF52" s="25"/>
-      <c r="AG52" s="25"/>
-      <c r="AH52" s="25"/>
-      <c r="AI52" s="25"/>
-      <c r="AJ52" s="25"/>
-      <c r="AK52" s="25"/>
-      <c r="AL52" s="25"/>
-      <c r="AM52" s="25"/>
-      <c r="AN52" s="25"/>
-      <c r="AO52" s="25"/>
-      <c r="AP52" s="25"/>
-      <c r="AQ52" s="25"/>
-      <c r="AR52" s="25"/>
-      <c r="AS52" s="25"/>
-      <c r="AT52" s="25"/>
-      <c r="AU52" s="25"/>
-      <c r="AV52" s="25"/>
-      <c r="AW52" s="25"/>
-      <c r="AX52" s="25"/>
-      <c r="AY52" s="25"/>
-      <c r="AZ52" s="25"/>
-      <c r="BA52" s="25"/>
-      <c r="BB52" s="25"/>
-      <c r="BC52" s="25"/>
-      <c r="BD52" s="25"/>
-      <c r="BE52" s="25"/>
-      <c r="BF52" s="25"/>
-      <c r="BG52" s="25"/>
-      <c r="BH52" s="25"/>
-      <c r="BI52" s="25"/>
-      <c r="BJ52" s="25"/>
-      <c r="BK52" s="25"/>
-      <c r="BL52" s="25"/>
-      <c r="BM52" s="25"/>
-      <c r="BN52" s="25"/>
+    <row r="52" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A52" s="47" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.3.4</v>
+      </c>
+      <c r="B52" s="129" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="123" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="88"/>
+      <c r="E52" s="65">
+        <v>44508</v>
+      </c>
+      <c r="F52" s="66">
+        <f t="shared" si="29"/>
+        <v>44512</v>
+      </c>
+      <c r="G52" s="49">
+        <v>5</v>
+      </c>
+      <c r="H52" s="50">
+        <v>0</v>
+      </c>
+      <c r="I52" s="51">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="J52" s="63"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="69"/>
+      <c r="P52" s="69"/>
+      <c r="Q52" s="69"/>
+      <c r="R52" s="69"/>
+      <c r="S52" s="69"/>
+      <c r="T52" s="69"/>
+      <c r="U52" s="69"/>
+      <c r="V52" s="69"/>
+      <c r="W52" s="69"/>
+      <c r="X52" s="69"/>
+      <c r="Y52" s="69"/>
+      <c r="Z52" s="69"/>
+      <c r="AA52" s="69"/>
+      <c r="AB52" s="69"/>
+      <c r="AC52" s="69"/>
+      <c r="AD52" s="69"/>
+      <c r="AE52" s="69"/>
+      <c r="AF52" s="69"/>
+      <c r="AG52" s="69"/>
+      <c r="AH52" s="69"/>
+      <c r="AI52" s="69"/>
+      <c r="AJ52" s="69"/>
+      <c r="AK52" s="69"/>
+      <c r="AL52" s="69"/>
+      <c r="AM52" s="69"/>
+      <c r="AN52" s="69"/>
+      <c r="AO52" s="69"/>
+      <c r="AP52" s="69"/>
+      <c r="AQ52" s="69"/>
+      <c r="AR52" s="69"/>
+      <c r="AS52" s="69"/>
+      <c r="AT52" s="69"/>
+      <c r="AU52" s="69"/>
+      <c r="AV52" s="69"/>
+      <c r="AW52" s="69"/>
+      <c r="AX52" s="69"/>
+      <c r="AY52" s="69"/>
+      <c r="AZ52" s="69"/>
+      <c r="BA52" s="69"/>
+      <c r="BB52" s="69"/>
+      <c r="BC52" s="69"/>
+      <c r="BD52" s="69"/>
+      <c r="BE52" s="69"/>
+      <c r="BF52" s="69"/>
+      <c r="BG52" s="69"/>
+      <c r="BH52" s="69"/>
+      <c r="BI52" s="69"/>
+      <c r="BJ52" s="69"/>
+      <c r="BK52" s="69"/>
+      <c r="BL52" s="69"/>
+      <c r="BM52" s="69"/>
+      <c r="BN52" s="69"/>
+    </row>
+    <row r="53" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A53" s="47" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.3.5</v>
+      </c>
+      <c r="B53" s="129" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="123" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="88"/>
+      <c r="E53" s="65">
+        <v>44512</v>
+      </c>
+      <c r="F53" s="66">
+        <f t="shared" si="29"/>
+        <v>44517</v>
+      </c>
+      <c r="G53" s="49">
+        <v>6</v>
+      </c>
+      <c r="H53" s="50">
+        <v>0</v>
+      </c>
+      <c r="I53" s="51">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="J53" s="63"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="69"/>
+      <c r="O53" s="69"/>
+      <c r="P53" s="69"/>
+      <c r="Q53" s="69"/>
+      <c r="R53" s="69"/>
+      <c r="S53" s="69"/>
+      <c r="T53" s="69"/>
+      <c r="U53" s="69"/>
+      <c r="V53" s="69"/>
+      <c r="W53" s="69"/>
+      <c r="X53" s="69"/>
+      <c r="Y53" s="69"/>
+      <c r="Z53" s="69"/>
+      <c r="AA53" s="69"/>
+      <c r="AB53" s="69"/>
+      <c r="AC53" s="69"/>
+      <c r="AD53" s="69"/>
+      <c r="AE53" s="69"/>
+      <c r="AF53" s="69"/>
+      <c r="AG53" s="69"/>
+      <c r="AH53" s="69"/>
+      <c r="AI53" s="69"/>
+      <c r="AJ53" s="69"/>
+      <c r="AK53" s="69"/>
+      <c r="AL53" s="69"/>
+      <c r="AM53" s="69"/>
+      <c r="AN53" s="69"/>
+      <c r="AO53" s="69"/>
+      <c r="AP53" s="69"/>
+      <c r="AQ53" s="69"/>
+      <c r="AR53" s="69"/>
+      <c r="AS53" s="69"/>
+      <c r="AT53" s="69"/>
+      <c r="AU53" s="69"/>
+      <c r="AV53" s="69"/>
+      <c r="AW53" s="69"/>
+      <c r="AX53" s="69"/>
+      <c r="AY53" s="69"/>
+      <c r="AZ53" s="69"/>
+      <c r="BA53" s="69"/>
+      <c r="BB53" s="69"/>
+      <c r="BC53" s="69"/>
+      <c r="BD53" s="69"/>
+      <c r="BE53" s="69"/>
+      <c r="BF53" s="69"/>
+      <c r="BG53" s="69"/>
+      <c r="BH53" s="69"/>
+      <c r="BI53" s="69"/>
+      <c r="BJ53" s="69"/>
+      <c r="BK53" s="69"/>
+      <c r="BL53" s="69"/>
+      <c r="BM53" s="69"/>
+      <c r="BN53" s="69"/>
+    </row>
+    <row r="54" spans="1:66" s="42" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A54" s="40" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>4</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="130" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="43"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G54" s="44"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="46" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J54" s="64"/>
+      <c r="K54" s="71"/>
+      <c r="L54" s="71"/>
+      <c r="M54" s="71"/>
+      <c r="N54" s="71"/>
+      <c r="O54" s="71"/>
+      <c r="P54" s="71"/>
+      <c r="Q54" s="71"/>
+      <c r="R54" s="71"/>
+      <c r="S54" s="71"/>
+      <c r="T54" s="71"/>
+      <c r="U54" s="71"/>
+      <c r="V54" s="71"/>
+      <c r="W54" s="71"/>
+      <c r="X54" s="71"/>
+      <c r="Y54" s="71"/>
+      <c r="Z54" s="71"/>
+      <c r="AA54" s="71"/>
+      <c r="AB54" s="71"/>
+      <c r="AC54" s="71"/>
+      <c r="AD54" s="71"/>
+      <c r="AE54" s="71"/>
+      <c r="AF54" s="71"/>
+      <c r="AG54" s="71"/>
+      <c r="AH54" s="71"/>
+      <c r="AI54" s="71"/>
+      <c r="AJ54" s="71"/>
+      <c r="AK54" s="71"/>
+      <c r="AL54" s="71"/>
+      <c r="AM54" s="71"/>
+      <c r="AN54" s="71"/>
+      <c r="AO54" s="71"/>
+      <c r="AP54" s="71"/>
+      <c r="AQ54" s="71"/>
+      <c r="AR54" s="71"/>
+      <c r="AS54" s="71"/>
+      <c r="AT54" s="71"/>
+      <c r="AU54" s="71"/>
+      <c r="AV54" s="71"/>
+      <c r="AW54" s="71"/>
+      <c r="AX54" s="71"/>
+      <c r="AY54" s="71"/>
+      <c r="AZ54" s="71"/>
+      <c r="BA54" s="71"/>
+      <c r="BB54" s="71"/>
+      <c r="BC54" s="71"/>
+      <c r="BD54" s="71"/>
+      <c r="BE54" s="71"/>
+      <c r="BF54" s="71"/>
+      <c r="BG54" s="71"/>
+      <c r="BH54" s="71"/>
+      <c r="BI54" s="71"/>
+      <c r="BJ54" s="71"/>
+      <c r="BK54" s="71"/>
+      <c r="BL54" s="71"/>
+      <c r="BM54" s="71"/>
+      <c r="BN54" s="71"/>
+    </row>
+    <row r="55" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A55" s="47" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.1</v>
+      </c>
+      <c r="B55" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="123" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="88"/>
+      <c r="E55" s="65">
+        <v>44518</v>
+      </c>
+      <c r="F55" s="66">
+        <f t="shared" si="15"/>
+        <v>44518</v>
+      </c>
+      <c r="G55" s="49">
+        <v>1</v>
+      </c>
+      <c r="H55" s="50">
+        <v>0</v>
+      </c>
+      <c r="I55" s="51">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J55" s="63"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="69"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="69"/>
+      <c r="O55" s="69"/>
+      <c r="P55" s="69"/>
+      <c r="Q55" s="69"/>
+      <c r="R55" s="69"/>
+      <c r="S55" s="69"/>
+      <c r="T55" s="69"/>
+      <c r="U55" s="69"/>
+      <c r="V55" s="69"/>
+      <c r="W55" s="69"/>
+      <c r="X55" s="69"/>
+      <c r="Y55" s="69"/>
+      <c r="Z55" s="69"/>
+      <c r="AA55" s="69"/>
+      <c r="AB55" s="69"/>
+      <c r="AC55" s="69"/>
+      <c r="AD55" s="69"/>
+      <c r="AE55" s="69"/>
+      <c r="AF55" s="69"/>
+      <c r="AG55" s="69"/>
+      <c r="AH55" s="69"/>
+      <c r="AI55" s="69"/>
+      <c r="AJ55" s="69"/>
+      <c r="AK55" s="69"/>
+      <c r="AL55" s="69"/>
+      <c r="AM55" s="69"/>
+      <c r="AN55" s="69"/>
+      <c r="AO55" s="69"/>
+      <c r="AP55" s="69"/>
+      <c r="AQ55" s="69"/>
+      <c r="AR55" s="69"/>
+      <c r="AS55" s="69"/>
+      <c r="AT55" s="69"/>
+      <c r="AU55" s="69"/>
+      <c r="AV55" s="69"/>
+      <c r="AW55" s="69"/>
+      <c r="AX55" s="69"/>
+      <c r="AY55" s="69"/>
+      <c r="AZ55" s="69"/>
+      <c r="BA55" s="69"/>
+      <c r="BB55" s="69"/>
+      <c r="BC55" s="69"/>
+      <c r="BD55" s="69"/>
+      <c r="BE55" s="69"/>
+      <c r="BF55" s="69"/>
+      <c r="BG55" s="69"/>
+      <c r="BH55" s="69"/>
+      <c r="BI55" s="69"/>
+      <c r="BJ55" s="69"/>
+      <c r="BK55" s="69"/>
+      <c r="BL55" s="69"/>
+      <c r="BM55" s="69"/>
+      <c r="BN55" s="69"/>
+    </row>
+    <row r="56" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A56" s="47" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.2</v>
+      </c>
+      <c r="B56" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" s="123" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" s="88"/>
+      <c r="E56" s="65">
+        <v>44518</v>
+      </c>
+      <c r="F56" s="66">
+        <f t="shared" si="15"/>
+        <v>44522</v>
+      </c>
+      <c r="G56" s="49">
+        <v>5</v>
+      </c>
+      <c r="H56" s="50">
+        <v>0</v>
+      </c>
+      <c r="I56" s="51">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="J56" s="63"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="69"/>
+      <c r="M56" s="69"/>
+      <c r="N56" s="69"/>
+      <c r="O56" s="69"/>
+      <c r="P56" s="69"/>
+      <c r="Q56" s="69"/>
+      <c r="R56" s="69"/>
+      <c r="S56" s="69"/>
+      <c r="T56" s="69"/>
+      <c r="U56" s="69"/>
+      <c r="V56" s="69"/>
+      <c r="W56" s="69"/>
+      <c r="X56" s="69"/>
+      <c r="Y56" s="69"/>
+      <c r="Z56" s="69"/>
+      <c r="AA56" s="69"/>
+      <c r="AB56" s="69"/>
+      <c r="AC56" s="69"/>
+      <c r="AD56" s="69"/>
+      <c r="AE56" s="69"/>
+      <c r="AF56" s="69"/>
+      <c r="AG56" s="69"/>
+      <c r="AH56" s="69"/>
+      <c r="AI56" s="69"/>
+      <c r="AJ56" s="69"/>
+      <c r="AK56" s="69"/>
+      <c r="AL56" s="69"/>
+      <c r="AM56" s="69"/>
+      <c r="AN56" s="69"/>
+      <c r="AO56" s="69"/>
+      <c r="AP56" s="69"/>
+      <c r="AQ56" s="69"/>
+      <c r="AR56" s="69"/>
+      <c r="AS56" s="69"/>
+      <c r="AT56" s="69"/>
+      <c r="AU56" s="69"/>
+      <c r="AV56" s="69"/>
+      <c r="AW56" s="69"/>
+      <c r="AX56" s="69"/>
+      <c r="AY56" s="69"/>
+      <c r="AZ56" s="69"/>
+      <c r="BA56" s="69"/>
+      <c r="BB56" s="69"/>
+      <c r="BC56" s="69"/>
+      <c r="BD56" s="69"/>
+      <c r="BE56" s="69"/>
+      <c r="BF56" s="69"/>
+      <c r="BG56" s="69"/>
+      <c r="BH56" s="69"/>
+      <c r="BI56" s="69"/>
+      <c r="BJ56" s="69"/>
+      <c r="BK56" s="69"/>
+      <c r="BL56" s="69"/>
+      <c r="BM56" s="69"/>
+      <c r="BN56" s="69"/>
+    </row>
+    <row r="57" spans="1:66" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A57" s="47" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.3</v>
+      </c>
+      <c r="B57" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="123" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="88"/>
+      <c r="E57" s="65">
+        <v>44518</v>
+      </c>
+      <c r="F57" s="66">
+        <f t="shared" si="15"/>
+        <v>44519</v>
+      </c>
+      <c r="G57" s="49">
+        <v>2</v>
+      </c>
+      <c r="H57" s="50">
+        <v>0</v>
+      </c>
+      <c r="I57" s="51">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J57" s="63"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="69"/>
+      <c r="O57" s="69"/>
+      <c r="P57" s="69"/>
+      <c r="Q57" s="69"/>
+      <c r="R57" s="69"/>
+      <c r="S57" s="69"/>
+      <c r="T57" s="69"/>
+      <c r="U57" s="69"/>
+      <c r="V57" s="69"/>
+      <c r="W57" s="69"/>
+      <c r="X57" s="69"/>
+      <c r="Y57" s="69"/>
+      <c r="Z57" s="69"/>
+      <c r="AA57" s="69"/>
+      <c r="AB57" s="69"/>
+      <c r="AC57" s="69"/>
+      <c r="AD57" s="69"/>
+      <c r="AE57" s="69"/>
+      <c r="AF57" s="69"/>
+      <c r="AG57" s="69"/>
+      <c r="AH57" s="69"/>
+      <c r="AI57" s="69"/>
+      <c r="AJ57" s="69"/>
+      <c r="AK57" s="69"/>
+      <c r="AL57" s="69"/>
+      <c r="AM57" s="69"/>
+      <c r="AN57" s="69"/>
+      <c r="AO57" s="69"/>
+      <c r="AP57" s="69"/>
+      <c r="AQ57" s="69"/>
+      <c r="AR57" s="69"/>
+      <c r="AS57" s="69"/>
+      <c r="AT57" s="69"/>
+      <c r="AU57" s="69"/>
+      <c r="AV57" s="69"/>
+      <c r="AW57" s="69"/>
+      <c r="AX57" s="69"/>
+      <c r="AY57" s="69"/>
+      <c r="AZ57" s="69"/>
+      <c r="BA57" s="69"/>
+      <c r="BB57" s="69"/>
+      <c r="BC57" s="69"/>
+      <c r="BD57" s="69"/>
+      <c r="BE57" s="69"/>
+      <c r="BF57" s="69"/>
+      <c r="BG57" s="69"/>
+      <c r="BH57" s="69"/>
+      <c r="BI57" s="69"/>
+      <c r="BJ57" s="69"/>
+      <c r="BK57" s="69"/>
+      <c r="BL57" s="69"/>
+      <c r="BM57" s="69"/>
+      <c r="BN57" s="69"/>
+    </row>
+    <row r="58" spans="1:66" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="122"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="25"/>
+      <c r="T58" s="25"/>
+      <c r="U58" s="25"/>
+      <c r="V58" s="25"/>
+      <c r="W58" s="25"/>
+      <c r="X58" s="25"/>
+      <c r="Y58" s="25"/>
+      <c r="Z58" s="25"/>
+      <c r="AA58" s="25"/>
+      <c r="AB58" s="25"/>
+      <c r="AC58" s="25"/>
+      <c r="AD58" s="25"/>
+      <c r="AE58" s="25"/>
+      <c r="AF58" s="25"/>
+      <c r="AG58" s="25"/>
+      <c r="AH58" s="25"/>
+      <c r="AI58" s="25"/>
+      <c r="AJ58" s="25"/>
+      <c r="AK58" s="25"/>
+      <c r="AL58" s="25"/>
+      <c r="AM58" s="25"/>
+      <c r="AN58" s="25"/>
+      <c r="AO58" s="25"/>
+      <c r="AP58" s="25"/>
+      <c r="AQ58" s="25"/>
+      <c r="AR58" s="25"/>
+      <c r="AS58" s="25"/>
+      <c r="AT58" s="25"/>
+      <c r="AU58" s="25"/>
+      <c r="AV58" s="25"/>
+      <c r="AW58" s="25"/>
+      <c r="AX58" s="25"/>
+      <c r="AY58" s="25"/>
+      <c r="AZ58" s="25"/>
+      <c r="BA58" s="25"/>
+      <c r="BB58" s="25"/>
+      <c r="BC58" s="25"/>
+      <c r="BD58" s="25"/>
+      <c r="BE58" s="25"/>
+      <c r="BF58" s="25"/>
+      <c r="BG58" s="25"/>
+      <c r="BH58" s="25"/>
+      <c r="BI58" s="25"/>
+      <c r="BJ58" s="25"/>
+      <c r="BK58" s="25"/>
+      <c r="BL58" s="25"/>
+      <c r="BM58" s="25"/>
+      <c r="BN58" s="25"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -8422,19 +8931,10 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H18 H48:H51 H33:H43">
-    <cfRule type="dataBar" priority="34">
+  <conditionalFormatting sqref="H54:H57 H8:H20 H47:H49 H35:H38 H41:H45">
+    <cfRule type="dataBar" priority="55">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8448,25 +8948,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="27" priority="77">
+    <cfRule type="expression" dxfId="17" priority="98">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN18 K32:BN36 K38:BN39 K48:BN51">
-    <cfRule type="expression" dxfId="26" priority="80">
+  <conditionalFormatting sqref="K8:BN38 K40:BN57">
+    <cfRule type="expression" dxfId="16" priority="101">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="81">
+    <cfRule type="expression" dxfId="15" priority="102">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN18 K33:BN36 K38:BN39 K48:BN51">
-    <cfRule type="expression" dxfId="24" priority="40">
+  <conditionalFormatting sqref="K35:BN38 K54:BN57 K6:BN20 K41:BN42 K44:BN44">
+    <cfRule type="expression" dxfId="14" priority="61">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:H20">
-    <cfRule type="dataBar" priority="29">
+  <conditionalFormatting sqref="H21:H22">
+    <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8479,21 +8979,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:BN20">
-    <cfRule type="expression" dxfId="23" priority="31">
-      <formula>AND($E19&lt;=K$6,ROUNDDOWN(($F19-$E19+1)*$H19,0)+$E19-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="32">
-      <formula>AND(NOT(ISBLANK($E19)),$E19&lt;=K$6,$F19&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:BN20">
-    <cfRule type="expression" dxfId="21" priority="30">
+  <conditionalFormatting sqref="K21:BN22">
+    <cfRule type="expression" dxfId="13" priority="51">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21:H32">
-    <cfRule type="dataBar" priority="25">
+  <conditionalFormatting sqref="H23:H34">
+    <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8506,47 +8998,23 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:BN27">
-    <cfRule type="expression" dxfId="20" priority="27">
-      <formula>AND($E21&lt;=K$6,ROUNDDOWN(($F21-$E21+1)*$H21,0)+$E21-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="28">
-      <formula>AND(NOT(ISBLANK($E21)),$E21&lt;=K$6,$F21&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21:BN27 K32:BN32">
-    <cfRule type="expression" dxfId="18" priority="26">
+  <conditionalFormatting sqref="K23:BN29 K34:BN34">
+    <cfRule type="expression" dxfId="12" priority="47">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:BN31">
-    <cfRule type="expression" dxfId="17" priority="23">
-      <formula>AND($E28&lt;=K$6,ROUNDDOWN(($F28-$E28+1)*$H28,0)+$E28-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24">
-      <formula>AND(NOT(ISBLANK($E28)),$E28&lt;=K$6,$F28&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28:BN31">
-    <cfRule type="expression" dxfId="15" priority="22">
+  <conditionalFormatting sqref="K30:BN33">
+    <cfRule type="expression" dxfId="11" priority="43">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:BN37">
-    <cfRule type="expression" dxfId="14" priority="19">
-      <formula>AND($E37&lt;=K$6,ROUNDDOWN(($F37-$E37+1)*$H37,0)+$E37-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="20">
-      <formula>AND(NOT(ISBLANK($E37)),$E37&lt;=K$6,$F37&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K37:BN37">
-    <cfRule type="expression" dxfId="12" priority="18">
+  <conditionalFormatting sqref="K43:BN43">
+    <cfRule type="expression" dxfId="10" priority="39">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="dataBar" priority="13">
+  <conditionalFormatting sqref="H50">
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8559,34 +9027,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:BN41 K43:BN44">
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>AND($E40&lt;=K$6,ROUNDDOWN(($F40-$E40+1)*$H40,0)+$E40-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="16">
-      <formula>AND(NOT(ISBLANK($E40)),$E40&lt;=K$6,$F40&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K40:BN41 K43:BN44">
-    <cfRule type="expression" dxfId="9" priority="14">
+  <conditionalFormatting sqref="K45:BN45 K49:BN50 K47:BN47">
+    <cfRule type="expression" dxfId="9" priority="35">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="8" priority="11">
-      <formula>AND($E42&lt;=K$6,ROUNDDOWN(($F42-$E42+1)*$H42,0)+$E42-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="12">
-      <formula>AND(NOT(ISBLANK($E42)),$E42&lt;=K$6,$F42&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="6" priority="10">
+  <conditionalFormatting sqref="K48:BN48">
+    <cfRule type="expression" dxfId="8" priority="31">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46:H47">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="H52:H53">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8599,21 +9051,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:BN47">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>AND($E46&lt;=K$6,ROUNDDOWN(($F46-$E46+1)*$H46,0)+$E46-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
-      <formula>AND(NOT(ISBLANK($E46)),$E46&lt;=K$6,$F46&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46:BN47">
-    <cfRule type="expression" dxfId="3" priority="6">
+  <conditionalFormatting sqref="K52:BN53">
+    <cfRule type="expression" dxfId="7" priority="27">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="H51">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8626,17 +9070,93 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND($E45&lt;=K$6,ROUNDDOWN(($F45-$E45+1)*$H45,0)+$E45-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>AND(NOT(ISBLANK($E45)),$E45&lt;=K$6,$F45&gt;=K$6)</formula>
+  <conditionalFormatting sqref="K51:BN51">
+    <cfRule type="expression" dxfId="6" priority="23">
+      <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:BN45">
+  <conditionalFormatting sqref="H13">
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{567D0B33-FBC1-4C10-92D8-B389576B4A9A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13:BN13">
+    <cfRule type="expression" dxfId="5" priority="19">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{41E7B91B-B599-4159-8282-A19D06ECD0F4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40:BN40">
+    <cfRule type="expression" dxfId="4" priority="15">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:BN39">
+    <cfRule type="expression" dxfId="3" priority="8">
+      <formula>AND($E39&lt;=K$6,ROUNDDOWN(($F39-$E39+1)*$H39,0)+$E39-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="9">
+      <formula>AND(NOT(ISBLANK($E39)),$E39&lt;=K$6,$F39&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:BN39">
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{15D8CAE0-B9DA-4719-B2DB-F5348D141458}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46:BN46">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BEFEBDC3-403B-49DB-AD0C-500125BAF54C}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -8646,8 +9166,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 E13 E33 E48 G13:H13 G33:H33 G48:H49 H51 H50" unlockedFormula="1"/>
-    <ignoredError sqref="A48 A33 A13 A17 A22 A35" formula="1"/>
+    <ignoredError sqref="H10 E15 E35 E54 G15:H15 G35:H35 G54:H55 H57 H56" unlockedFormula="1"/>
+    <ignoredError sqref="A54 A35 A15 A19 A24 A41 A17 A44" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -8695,7 +9215,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H18 H48:H51 H33:H43</xm:sqref>
+          <xm:sqref>H54:H57 H8:H20 H47:H49 H35:H38 H41:H45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{92C23BD8-F5EE-4B70-B3A6-5537E5DE505D}">
@@ -8710,7 +9230,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H19:H20</xm:sqref>
+          <xm:sqref>H21:H22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D40C57FF-0F86-441B-902C-A3DC19534C10}">
@@ -8725,7 +9245,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H21:H32</xm:sqref>
+          <xm:sqref>H23:H34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6643B290-4448-40B9-BA16-BD5CD834E940}">
@@ -8740,7 +9260,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H44</xm:sqref>
+          <xm:sqref>H50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5B96C5C7-A776-4432-95A1-0FA281E0D320}">
@@ -8755,7 +9275,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H46:H47</xm:sqref>
+          <xm:sqref>H52:H53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8CE73042-D7FD-4E91-9BFE-FF0807AE486C}">
@@ -8770,7 +9290,67 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H45</xm:sqref>
+          <xm:sqref>H51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{567D0B33-FBC1-4C10-92D8-B389576B4A9A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{41E7B91B-B599-4159-8282-A19D06ECD0F4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{15D8CAE0-B9DA-4719-B2DB-F5348D141458}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H46</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BEFEBDC3-403B-49DB-AD0C-500125BAF54C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/documents/甘特图.xlsx
+++ b/documents/甘特图.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mine\okane-memo\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AD879B-235B-4116-B090-4BDF7640FF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FC04CE-FF91-4768-8BB2-D00318976208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1008" yWindow="0" windowWidth="13428" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -3743,8 +3743,8 @@
   <dimension ref="A1:BN58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L57" sqref="L57"/>
+      <pane ySplit="7" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8160,7 +8160,7 @@
         <v>159</v>
       </c>
       <c r="C50" s="123" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="65">
@@ -8174,7 +8174,7 @@
         <v>3</v>
       </c>
       <c r="H50" s="50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I50" s="51">
         <f t="shared" si="26"/>
@@ -8247,7 +8247,7 @@
         <v>160</v>
       </c>
       <c r="C51" s="123" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="D51" s="88"/>
       <c r="E51" s="65">
@@ -8261,7 +8261,7 @@
         <v>4</v>
       </c>
       <c r="H51" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="51">
         <f t="shared" ref="I51:I53" si="30">IF(OR(F51=0,E51=0)," - ",NETWORKDAYS(E51,F51))</f>
